--- a/ProcessedData/conf_svm_early_fusion_3.xlsx
+++ b/ProcessedData/conf_svm_early_fusion_3.xlsx
@@ -14,18 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>video_number</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
   <si>
     <t>prediction</t>
@@ -393,20 +384,20 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="1">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -414,16 +405,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-0.2753431287649141</v>
+        <v>7.233837886172888</v>
       </c>
       <c r="C2">
-        <v>-2.226719915927008</v>
+        <v>8.643183922127163</v>
       </c>
       <c r="D2">
-        <v>-1.218487626427522</v>
+        <v>4.162059156797229</v>
+      </c>
+      <c r="E2">
+        <v>19</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -431,16 +425,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.601527386222368</v>
+        <v>0.2553159688494891</v>
       </c>
       <c r="C3">
-        <v>-1.472232510699961</v>
+        <v>2.681321132950352</v>
       </c>
       <c r="D3">
-        <v>-0.7769630557515009</v>
+        <v>1.571685122858562</v>
+      </c>
+      <c r="E3">
+        <v>19</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -448,16 +445,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.543811826198553</v>
+        <v>0.5184609862060511</v>
       </c>
       <c r="C4">
-        <v>-1.312888935768164</v>
+        <v>1.429820389533504</v>
       </c>
       <c r="D4">
-        <v>-0.7203395602702324</v>
+        <v>0.7159033486631688</v>
+      </c>
+      <c r="E4">
+        <v>19</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -465,16 +465,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.05011573115804641</v>
+        <v>0.1883290603897296</v>
       </c>
       <c r="C5">
-        <v>-0.9053169420712437</v>
+        <v>1.877932561360449</v>
       </c>
       <c r="D5">
-        <v>-0.6313326494508444</v>
+        <v>0.9901114878017455</v>
+      </c>
+      <c r="E5">
+        <v>19</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -482,16 +485,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7883417913136572</v>
+        <v>0.8143882578767329</v>
       </c>
       <c r="C6">
-        <v>-1.706402320377985</v>
+        <v>1.737116643076041</v>
       </c>
       <c r="D6">
-        <v>-0.5240291647359071</v>
+        <v>1.546949362638747</v>
+      </c>
+      <c r="E6">
+        <v>19</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -499,16 +505,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.675956654950276</v>
+        <v>1.295711470297157</v>
       </c>
       <c r="C7">
-        <v>-1.012063765282758</v>
+        <v>1.963211121738892</v>
       </c>
       <c r="D7">
-        <v>-1.065414732616749</v>
+        <v>0.8204657203566733</v>
+      </c>
+      <c r="E7">
+        <v>19</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -516,16 +525,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7393785438323472</v>
+        <v>0.8297912768433889</v>
       </c>
       <c r="C8">
-        <v>-1.04575198935129</v>
+        <v>2.824531588013884</v>
       </c>
       <c r="D8">
-        <v>-1.480583606214769</v>
+        <v>0.6123057852585593</v>
+      </c>
+      <c r="E8">
+        <v>19</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -533,16 +545,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4414836075921011</v>
+        <v>0.358307659187148</v>
       </c>
       <c r="C9">
-        <v>-0.4660498984191637</v>
+        <v>2.064096908617299</v>
       </c>
       <c r="D9">
-        <v>-1.810842462528064</v>
+        <v>-0.3290630850653576</v>
+      </c>
+      <c r="E9">
+        <v>19</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -550,13 +565,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.118816273178663</v>
+        <v>1.433673313015543</v>
       </c>
       <c r="C10">
-        <v>-1.343089971030517</v>
+        <v>0.8102401064886595</v>
       </c>
       <c r="D10">
-        <v>-1.141551501767679</v>
+        <v>0.9103073601581949</v>
+      </c>
+      <c r="E10">
+        <v>19</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -567,13 +585,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.052482590570066</v>
+        <v>1.125288116945769</v>
       </c>
       <c r="C11">
-        <v>-1.384558828235727</v>
+        <v>0.8621202318431139</v>
       </c>
       <c r="D11">
-        <v>-1.097150234370305</v>
+        <v>0.9553943231606566</v>
+      </c>
+      <c r="E11">
+        <v>19</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -584,16 +605,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.6939250947123061</v>
+        <v>0.3534417640923991</v>
       </c>
       <c r="C12">
-        <v>-1.132758924404695</v>
+        <v>2.212852366031585</v>
       </c>
       <c r="D12">
-        <v>-1.113296021907824</v>
+        <v>0.6556715635056577</v>
+      </c>
+      <c r="E12">
+        <v>19</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -601,13 +625,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.869806752200678</v>
+        <v>0.8974117209491651</v>
       </c>
       <c r="C13">
-        <v>-1.384136532887129</v>
+        <v>0.6403953779690129</v>
       </c>
       <c r="D13">
-        <v>-0.8861975198494333</v>
+        <v>0.618147543615199</v>
+      </c>
+      <c r="E13">
+        <v>19</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -618,16 +645,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.8819910429699789</v>
+        <v>0.8221950572254725</v>
       </c>
       <c r="C14">
-        <v>-1.598726647957657</v>
+        <v>1.644929473707442</v>
       </c>
       <c r="D14">
-        <v>-0.8600931993851973</v>
+        <v>1.277589599965161</v>
+      </c>
+      <c r="E14">
+        <v>19</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -635,16 +665,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.9695093866316598</v>
+        <v>0.7945788562994548</v>
       </c>
       <c r="C15">
-        <v>-1.315268815634163</v>
+        <v>2.007529495904048</v>
       </c>
       <c r="D15">
-        <v>-1.448607432042259</v>
+        <v>0.3758046478016147</v>
+      </c>
+      <c r="E15">
+        <v>19</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -652,16 +685,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.11623739682685</v>
+        <v>1.472688801031484</v>
       </c>
       <c r="C16">
-        <v>-1.857559042751559</v>
+        <v>0.8986476662410307</v>
       </c>
       <c r="D16">
-        <v>-0.6713545888064013</v>
+        <v>1.811258957739204</v>
+      </c>
+      <c r="E16">
+        <v>19</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -669,13 +705,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4271718098873552</v>
+        <v>1.219305766810549</v>
       </c>
       <c r="C17">
-        <v>-2.163297706538424</v>
+        <v>-0.517835525640583</v>
       </c>
       <c r="D17">
-        <v>0.9776266688495289</v>
+        <v>5.019964692446976</v>
+      </c>
+      <c r="E17">
+        <v>19</v>
       </c>
       <c r="F17">
         <v>2</v>
@@ -686,16 +725,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.4291856437787527</v>
+        <v>-0.3916997474747809</v>
       </c>
       <c r="C18">
-        <v>-1.252807130839489</v>
+        <v>2.985561083467106</v>
       </c>
       <c r="D18">
-        <v>-0.9055808775472679</v>
+        <v>1.676740254792199</v>
+      </c>
+      <c r="E18">
+        <v>19</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -703,16 +745,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3124886249049684</v>
+        <v>-0.02510496418931485</v>
       </c>
       <c r="C19">
-        <v>-1.532834696059474</v>
+        <v>0.696212671945886</v>
       </c>
       <c r="D19">
-        <v>-0.102026258581755</v>
+        <v>2.297470324868993</v>
+      </c>
+      <c r="E19">
+        <v>19</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -720,16 +765,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-0.1316260119927621</v>
+        <v>0.08991874407848777</v>
       </c>
       <c r="C20">
-        <v>-0.729177166266801</v>
+        <v>0.402161517008117</v>
       </c>
       <c r="D20">
-        <v>-0.380117467621377</v>
+        <v>1.050767965191281</v>
+      </c>
+      <c r="E20">
+        <v>19</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -737,16 +785,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.2888577081638585</v>
+        <v>-0.3820189094639197</v>
       </c>
       <c r="C21">
-        <v>-0.7476702811691045</v>
+        <v>1.384919025937704</v>
       </c>
       <c r="D21">
-        <v>-1.046547335973818</v>
+        <v>0.6929005268768519</v>
+      </c>
+      <c r="E21">
+        <v>19</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -754,16 +805,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.2936315729970466</v>
+        <v>-0.1830081889348432</v>
       </c>
       <c r="C22">
-        <v>-1.384126840319177</v>
+        <v>1.831341564352984</v>
       </c>
       <c r="D22">
-        <v>-0.3406424628924009</v>
+        <v>1.770292914822851</v>
+      </c>
+      <c r="E22">
+        <v>19</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -771,13 +825,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-2.166473013354947</v>
+        <v>0.9443510228767508</v>
       </c>
       <c r="C23">
-        <v>-1.552772047037471</v>
+        <v>7.035800333149511</v>
       </c>
       <c r="D23">
-        <v>-0.0399078612252689</v>
+        <v>7.999265679300715</v>
+      </c>
+      <c r="E23">
+        <v>20</v>
       </c>
       <c r="F23">
         <v>2</v>
@@ -788,13 +845,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-1.295196019435541</v>
+        <v>-1.524069863197706</v>
       </c>
       <c r="C24">
-        <v>-0.2290417352762856</v>
+        <v>1.024270350362976</v>
       </c>
       <c r="D24">
-        <v>0.2720154693681819</v>
+        <v>1.714672352402894</v>
+      </c>
+      <c r="E24">
+        <v>20</v>
       </c>
       <c r="F24">
         <v>2</v>
@@ -805,13 +865,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-1.928633295059681</v>
+        <v>-2.047011075990115</v>
       </c>
       <c r="C25">
-        <v>-0.2760965679568136</v>
+        <v>0.9708243955960294</v>
       </c>
       <c r="D25">
-        <v>0.6271516246709102</v>
+        <v>2.670042768883168</v>
+      </c>
+      <c r="E25">
+        <v>20</v>
       </c>
       <c r="F25">
         <v>2</v>
@@ -822,13 +885,16 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-1.122533492075971</v>
+        <v>-1.066398730048223</v>
       </c>
       <c r="C26">
-        <v>-0.201399512969079</v>
+        <v>0.6545415139664209</v>
       </c>
       <c r="D26">
-        <v>0.07191075847150197</v>
+        <v>1.874854171132223</v>
+      </c>
+      <c r="E26">
+        <v>20</v>
       </c>
       <c r="F26">
         <v>2</v>
@@ -839,13 +905,16 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-1.546062892132728</v>
+        <v>-1.378378512158027</v>
       </c>
       <c r="C27">
-        <v>-0.3660648826299219</v>
+        <v>0.7059287733529905</v>
       </c>
       <c r="D27">
-        <v>0.5211667256485292</v>
+        <v>2.489206869876399</v>
+      </c>
+      <c r="E27">
+        <v>20</v>
       </c>
       <c r="F27">
         <v>2</v>
@@ -856,16 +925,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-1.184635315399214</v>
+        <v>-1.381337064698688</v>
       </c>
       <c r="C28">
-        <v>0.03476278477170872</v>
+        <v>0.9007047131192746</v>
       </c>
       <c r="D28">
-        <v>-0.1270445713627382</v>
+        <v>1.061085212877641</v>
+      </c>
+      <c r="E28">
+        <v>20</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -873,13 +945,16 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>-2.007681438120491</v>
+        <v>-1.440680547966014</v>
       </c>
       <c r="C29">
-        <v>-0.008784505500826101</v>
+        <v>1.591756714854473</v>
       </c>
       <c r="D29">
-        <v>0.5252953784570725</v>
+        <v>2.827780524157142</v>
+      </c>
+      <c r="E29">
+        <v>20</v>
       </c>
       <c r="F29">
         <v>2</v>
@@ -890,13 +965,16 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>-1.308911988246371</v>
+        <v>0.4012030436901418</v>
       </c>
       <c r="C30">
-        <v>-1.460057108455541</v>
+        <v>3.141720706749824</v>
       </c>
       <c r="D30">
-        <v>0.5166584320863689</v>
+        <v>5.171059684558003</v>
+      </c>
+      <c r="E30">
+        <v>20</v>
       </c>
       <c r="F30">
         <v>2</v>
@@ -907,16 +985,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-0.6409725994141958</v>
+        <v>-0.5914839097134635</v>
       </c>
       <c r="C31">
-        <v>-0.3254495990811889</v>
+        <v>0.703123449206449</v>
       </c>
       <c r="D31">
-        <v>-0.3944555387977081</v>
+        <v>0.9224479008836092</v>
+      </c>
+      <c r="E31">
+        <v>20</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -924,13 +1005,16 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>-1.052135593319062</v>
+        <v>-0.7675430180775044</v>
       </c>
       <c r="C32">
-        <v>-0.4989502926469</v>
+        <v>0.8296111732489057</v>
       </c>
       <c r="D32">
-        <v>0.1842299511738787</v>
+        <v>1.813427285795651</v>
+      </c>
+      <c r="E32">
+        <v>20</v>
       </c>
       <c r="F32">
         <v>2</v>
@@ -941,13 +1025,16 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-1.692068087021903</v>
+        <v>-1.490611182883252</v>
       </c>
       <c r="C33">
-        <v>-0.1437200934976322</v>
+        <v>0.8774381336130016</v>
       </c>
       <c r="D33">
-        <v>0.4525364176229854</v>
+        <v>2.198646448126822</v>
+      </c>
+      <c r="E33">
+        <v>20</v>
       </c>
       <c r="F33">
         <v>2</v>
@@ -958,13 +1045,16 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>-0.968149233276516</v>
+        <v>-0.8137639440827126</v>
       </c>
       <c r="C34">
-        <v>-0.7646534126101105</v>
+        <v>1.510785130491243</v>
       </c>
       <c r="D34">
-        <v>0.2784515023148795</v>
+        <v>3.526803388404356</v>
+      </c>
+      <c r="E34">
+        <v>20</v>
       </c>
       <c r="F34">
         <v>2</v>
@@ -975,13 +1065,16 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>-1.070888896647572</v>
+        <v>-1.115062021924148</v>
       </c>
       <c r="C35">
-        <v>-0.4353724857932871</v>
+        <v>0.7710480466484599</v>
       </c>
       <c r="D35">
-        <v>0.212355796837806</v>
+        <v>1.609280737215184</v>
+      </c>
+      <c r="E35">
+        <v>20</v>
       </c>
       <c r="F35">
         <v>2</v>
@@ -992,16 +1085,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>-1.503069605351282</v>
+        <v>-1.761799104329046</v>
       </c>
       <c r="C36">
-        <v>-0.06369940582741293</v>
+        <v>2.727419525042766</v>
       </c>
       <c r="D36">
-        <v>0.1368772695580392</v>
+        <v>2.140542253437764</v>
+      </c>
+      <c r="E36">
+        <v>20</v>
       </c>
       <c r="F36">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1009,13 +1105,16 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>-1.124977969957433</v>
+        <v>-1.100887143762528</v>
       </c>
       <c r="C37">
-        <v>-0.4860779004172565</v>
+        <v>0.7492249708105213</v>
       </c>
       <c r="D37">
-        <v>0.3213024075595535</v>
+        <v>1.716178472376551</v>
+      </c>
+      <c r="E37">
+        <v>20</v>
       </c>
       <c r="F37">
         <v>2</v>
@@ -1026,13 +1125,16 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>-0.8021671288924863</v>
+        <v>-0.852491366240674</v>
       </c>
       <c r="C38">
-        <v>-0.4555614691023893</v>
+        <v>0.02979557332738003</v>
       </c>
       <c r="D38">
-        <v>0.09141371120331931</v>
+        <v>0.8157353091965044</v>
+      </c>
+      <c r="E38">
+        <v>20</v>
       </c>
       <c r="F38">
         <v>2</v>
@@ -1043,16 +1145,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>-1.834620824957381</v>
+        <v>-2.057021917809642</v>
       </c>
       <c r="C39">
-        <v>0.2543000632532007</v>
+        <v>1.896839731901708</v>
       </c>
       <c r="D39">
-        <v>0.327021076501062</v>
+        <v>1.779941909730506</v>
+      </c>
+      <c r="E39">
+        <v>20</v>
       </c>
       <c r="F39">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1060,13 +1165,16 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>-1.004868748391038</v>
+        <v>-0.9333765441762798</v>
       </c>
       <c r="C40">
-        <v>-0.4764947465236327</v>
+        <v>0.007971967682939063</v>
       </c>
       <c r="D40">
-        <v>0.3885469283742277</v>
+        <v>1.556971276884235</v>
+      </c>
+      <c r="E40">
+        <v>20</v>
       </c>
       <c r="F40">
         <v>2</v>
@@ -1077,16 +1185,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>-1.293038243414064</v>
+        <v>-0.7709303339890355</v>
       </c>
       <c r="C41">
-        <v>0.07989574064189806</v>
+        <v>0.748056731228808</v>
       </c>
       <c r="D41">
-        <v>-0.01720368397845184</v>
+        <v>1.614079159894826</v>
+      </c>
+      <c r="E41">
+        <v>20</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1094,13 +1205,16 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>-2.164536607990821</v>
+        <v>-4.468038828766929</v>
       </c>
       <c r="C42">
-        <v>-0.6116884569236625</v>
+        <v>0.9500634299619842</v>
       </c>
       <c r="D42">
-        <v>1.162110366975328</v>
+        <v>6.529314564095523</v>
+      </c>
+      <c r="E42">
+        <v>20</v>
       </c>
       <c r="F42">
         <v>2</v>
@@ -1111,13 +1225,16 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>-3.213544975272353</v>
+        <v>-0.1537743164769713</v>
       </c>
       <c r="C43">
-        <v>-1.58243216465626</v>
+        <v>9.470770055607716</v>
       </c>
       <c r="D43">
-        <v>0.4030256041486598</v>
+        <v>10.61528865577476</v>
+      </c>
+      <c r="E43">
+        <v>20</v>
       </c>
       <c r="F43">
         <v>2</v>
@@ -1128,16 +1245,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>-1.513212812152961</v>
+        <v>-2.371541369702361</v>
       </c>
       <c r="C44">
-        <v>-0.5666599822482599</v>
+        <v>3.790760286174576</v>
       </c>
       <c r="D44">
-        <v>0.4713674170185193</v>
+        <v>3.751430090918085</v>
+      </c>
+      <c r="E44">
+        <v>20</v>
       </c>
       <c r="F44">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1145,13 +1265,16 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>-2.546105366246779</v>
+        <v>-2.10276894851755</v>
       </c>
       <c r="C45">
-        <v>-0.08555263417585296</v>
+        <v>3.804380149843519</v>
       </c>
       <c r="D45">
-        <v>0.5697307042558267</v>
+        <v>4.689618800471502</v>
+      </c>
+      <c r="E45">
+        <v>20</v>
       </c>
       <c r="F45">
         <v>2</v>
@@ -1162,13 +1285,16 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>-1.549756061980551</v>
+        <v>-2.142634143049216</v>
       </c>
       <c r="C46">
-        <v>-0.02174000089361267</v>
+        <v>2.479761691931917</v>
       </c>
       <c r="D46">
-        <v>0.1559227497040881</v>
+        <v>3.008364959595085</v>
+      </c>
+      <c r="E46">
+        <v>20</v>
       </c>
       <c r="F46">
         <v>2</v>
@@ -1179,13 +1305,16 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>-1.537973323612346</v>
+        <v>-1.780373479440385</v>
       </c>
       <c r="C47">
-        <v>0.2739295998204696</v>
+        <v>1.24313877582429</v>
       </c>
       <c r="D47">
-        <v>-0.1376430779472465</v>
+        <v>1.216287710029067</v>
+      </c>
+      <c r="E47">
+        <v>20</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -1196,13 +1325,16 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>-1.076650672473551</v>
+        <v>-1.206332770375315</v>
       </c>
       <c r="C48">
-        <v>-0.1191245442939552</v>
+        <v>0.4671849454744148</v>
       </c>
       <c r="D48">
-        <v>-0.05934213287113499</v>
+        <v>1.416945485710658</v>
+      </c>
+      <c r="E48">
+        <v>20</v>
       </c>
       <c r="F48">
         <v>2</v>
@@ -1213,16 +1345,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>-1.590686706213007</v>
+        <v>-1.578653983897612</v>
       </c>
       <c r="C49">
-        <v>0.1676113492081917</v>
+        <v>1.257680412516779</v>
       </c>
       <c r="D49">
-        <v>0.1135781345032248</v>
+        <v>1.899703352972431</v>
+      </c>
+      <c r="E49">
+        <v>20</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1230,13 +1365,16 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>-1.159720865668517</v>
+        <v>-1.450874391309661</v>
       </c>
       <c r="C50">
-        <v>-0.5116696085435348</v>
+        <v>1.423530379811398</v>
       </c>
       <c r="D50">
-        <v>0.3254850154279596</v>
+        <v>1.930144509343926</v>
+      </c>
+      <c r="E50">
+        <v>20</v>
       </c>
       <c r="F50">
         <v>2</v>
@@ -1247,13 +1385,16 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>-0.9513031038071249</v>
+        <v>-0.9971508798074745</v>
       </c>
       <c r="C51">
-        <v>-0.6220484972201232</v>
+        <v>-0.2090508174457835</v>
       </c>
       <c r="D51">
-        <v>0.5699692913567588</v>
+        <v>1.970972850739792</v>
+      </c>
+      <c r="E51">
+        <v>20</v>
       </c>
       <c r="F51">
         <v>2</v>
@@ -1264,13 +1405,16 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>-0.8021185830714679</v>
+        <v>-0.9636540572229917</v>
       </c>
       <c r="C52">
-        <v>-0.5374833407239321</v>
+        <v>0.7567471845200034</v>
       </c>
       <c r="D52">
-        <v>0.1266034948806483</v>
+        <v>1.591625613167412</v>
+      </c>
+      <c r="E52">
+        <v>20</v>
       </c>
       <c r="F52">
         <v>2</v>
@@ -1281,16 +1425,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>-0.8048844217404323</v>
+        <v>-0.9633662675271397</v>
       </c>
       <c r="C53">
-        <v>0.1102875157858701</v>
+        <v>0.2195444056031351</v>
       </c>
       <c r="D53">
-        <v>-0.4295318720697747</v>
+        <v>0.2554774632421325</v>
+      </c>
+      <c r="E53">
+        <v>20</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1298,13 +1445,16 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>-1.056772895543363</v>
+        <v>-1.516446979376418</v>
       </c>
       <c r="C54">
-        <v>-0.5517032259450263</v>
+        <v>1.613953999703329</v>
       </c>
       <c r="D54">
-        <v>0.3702712179930686</v>
+        <v>2.462019385020071</v>
+      </c>
+      <c r="E54">
+        <v>20</v>
       </c>
       <c r="F54">
         <v>2</v>
@@ -1315,13 +1465,16 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>-1.836364938322229</v>
+        <v>-0.3143325629879098</v>
       </c>
       <c r="C55">
-        <v>-1.250619311989254</v>
+        <v>3.113084421375951</v>
       </c>
       <c r="D55">
-        <v>0.6365656440833293</v>
+        <v>5.505579460501218</v>
+      </c>
+      <c r="E55">
+        <v>20</v>
       </c>
       <c r="F55">
         <v>2</v>
@@ -1332,13 +1485,16 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>-1.386451228678776</v>
+        <v>-1.688585719944847</v>
       </c>
       <c r="C56">
-        <v>-0.5906129475308322</v>
+        <v>1.929431731539705</v>
       </c>
       <c r="D56">
-        <v>0.5099985307076479</v>
+        <v>2.496215331237463</v>
+      </c>
+      <c r="E56">
+        <v>20</v>
       </c>
       <c r="F56">
         <v>2</v>
@@ -1349,13 +1505,16 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>-1.536331580479536</v>
+        <v>-1.712312995708445</v>
       </c>
       <c r="C57">
-        <v>-0.3928044075555696</v>
+        <v>0.8757026104623969</v>
       </c>
       <c r="D57">
-        <v>0.5920629114387276</v>
+        <v>2.663406489157266</v>
+      </c>
+      <c r="E57">
+        <v>20</v>
       </c>
       <c r="F57">
         <v>2</v>
@@ -1366,13 +1525,16 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>-1.318441818384811</v>
+        <v>2.512189360966576</v>
       </c>
       <c r="C58">
-        <v>-1.767196816394262</v>
+        <v>5.971962364258503</v>
       </c>
       <c r="D58">
-        <v>-0.7491243677061995</v>
+        <v>6.956432303417906</v>
+      </c>
+      <c r="E58">
+        <v>20</v>
       </c>
       <c r="F58">
         <v>2</v>
@@ -1383,13 +1545,16 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>-2.917095274802191</v>
+        <v>-0.9980097367708727</v>
       </c>
       <c r="C59">
-        <v>-1.768286918547893</v>
+        <v>7.533656137503087</v>
       </c>
       <c r="D59">
-        <v>1.042276612641623</v>
+        <v>9.350633129594272</v>
+      </c>
+      <c r="E59">
+        <v>20</v>
       </c>
       <c r="F59">
         <v>2</v>
@@ -1400,16 +1565,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>-1.060649563996252</v>
+        <v>-1.76086936750494</v>
       </c>
       <c r="C60">
-        <v>-0.2915042841686101</v>
+        <v>2.222809378580691</v>
       </c>
       <c r="D60">
-        <v>-0.08447076651882235</v>
+        <v>1.909123231375329</v>
+      </c>
+      <c r="E60">
+        <v>20</v>
       </c>
       <c r="F60">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1417,16 +1585,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>-0.9373626971081972</v>
+        <v>-2.156523848168558</v>
       </c>
       <c r="C61">
-        <v>-1.150416543451813</v>
+        <v>5.11220056773952</v>
       </c>
       <c r="D61">
-        <v>0.1197708274631327</v>
+        <v>4.22393171951834</v>
+      </c>
+      <c r="E61">
+        <v>20</v>
       </c>
       <c r="F61">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1434,16 +1605,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>-1.262380181458914</v>
+        <v>-2.240391684152856</v>
       </c>
       <c r="C62">
-        <v>-0.6262792529453327</v>
+        <v>3.298709598614946</v>
       </c>
       <c r="D62">
-        <v>0.328475597623448</v>
+        <v>3.096465688542134</v>
+      </c>
+      <c r="E62">
+        <v>20</v>
       </c>
       <c r="F62">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1451,13 +1625,16 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>-0.4066121633265696</v>
+        <v>-0.9350715025471851</v>
       </c>
       <c r="C63">
-        <v>-1.528093388553682</v>
+        <v>-1.631194212332943</v>
       </c>
       <c r="D63">
-        <v>1.222723674027407</v>
+        <v>2.743493034075391</v>
+      </c>
+      <c r="E63">
+        <v>21</v>
       </c>
       <c r="F63">
         <v>2</v>
@@ -1468,13 +1645,16 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>-0.682425018788243</v>
+        <v>-0.4243046787722324</v>
       </c>
       <c r="C64">
-        <v>-0.8253689539174789</v>
+        <v>-0.2749223756114111</v>
       </c>
       <c r="D64">
-        <v>0.6076386839257502</v>
+        <v>2.17182834647164</v>
+      </c>
+      <c r="E64">
+        <v>21</v>
       </c>
       <c r="F64">
         <v>2</v>
@@ -1485,13 +1665,16 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>-0.7457126065157971</v>
+        <v>-0.376564844322948</v>
       </c>
       <c r="C65">
-        <v>-0.4446478900485951</v>
+        <v>0.4417894236866549</v>
       </c>
       <c r="D65">
-        <v>-0.1491157018549731</v>
+        <v>0.4482298838780121</v>
+      </c>
+      <c r="E65">
+        <v>21</v>
       </c>
       <c r="F65">
         <v>2</v>
@@ -1502,16 +1685,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>-0.8864388003572657</v>
+        <v>-0.5291232376839864</v>
       </c>
       <c r="C66">
-        <v>-0.1399605098487898</v>
+        <v>0.604293337007794</v>
       </c>
       <c r="D66">
-        <v>-0.1674115641521729</v>
+        <v>0.8035180396148828</v>
+      </c>
+      <c r="E66">
+        <v>21</v>
       </c>
       <c r="F66">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1519,13 +1705,16 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>-0.4187511107602956</v>
+        <v>-0.2119501641299201</v>
       </c>
       <c r="C67">
-        <v>-0.7518749092477246</v>
+        <v>-0.05074599958684478</v>
       </c>
       <c r="D67">
-        <v>0.04963380521168737</v>
+        <v>0.8816474524188848</v>
+      </c>
+      <c r="E67">
+        <v>21</v>
       </c>
       <c r="F67">
         <v>2</v>
@@ -1536,13 +1725,16 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>-0.6327270445896028</v>
+        <v>-0.5612734352685771</v>
       </c>
       <c r="C68">
-        <v>-0.3810161184543124</v>
+        <v>0.002506369253036322</v>
       </c>
       <c r="D68">
-        <v>-0.04259613231889808</v>
+        <v>0.2300086176291977</v>
+      </c>
+      <c r="E68">
+        <v>21</v>
       </c>
       <c r="F68">
         <v>2</v>
@@ -1553,13 +1745,16 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>-0.761168907425005</v>
+        <v>-0.435451632361044</v>
       </c>
       <c r="C69">
-        <v>-0.2291474590604126</v>
+        <v>0.04101815245362611</v>
       </c>
       <c r="D69">
-        <v>-0.09718484995015803</v>
+        <v>0.2739971004381504</v>
+      </c>
+      <c r="E69">
+        <v>21</v>
       </c>
       <c r="F69">
         <v>2</v>
@@ -1570,16 +1765,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>-0.5792816681727651</v>
+        <v>-0.05498763619415259</v>
       </c>
       <c r="C70">
-        <v>-0.4200573723577567</v>
+        <v>0.1189351767760649</v>
       </c>
       <c r="D70">
-        <v>-0.1618591448679866</v>
+        <v>0.03422055566568638</v>
+      </c>
+      <c r="E70">
+        <v>21</v>
       </c>
       <c r="F70">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1587,13 +1785,16 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>-0.7707149713988817</v>
+        <v>-0.817621618745598</v>
       </c>
       <c r="C71">
-        <v>-0.4100092260052371</v>
+        <v>0.8910390357741736</v>
       </c>
       <c r="D71">
-        <v>0.1227938365838305</v>
+        <v>1.335913384759372</v>
+      </c>
+      <c r="E71">
+        <v>21</v>
       </c>
       <c r="F71">
         <v>2</v>
@@ -1604,13 +1805,16 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>-0.3805457564635528</v>
+        <v>-0.3558558049360823</v>
       </c>
       <c r="C72">
-        <v>-0.9046525581091875</v>
+        <v>-0.05359407473080269</v>
       </c>
       <c r="D72">
-        <v>0.306056936646658</v>
+        <v>1.27105866503572</v>
+      </c>
+      <c r="E72">
+        <v>21</v>
       </c>
       <c r="F72">
         <v>2</v>
@@ -1621,16 +1825,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>-1.442024764828518</v>
+        <v>3.12926528022205</v>
       </c>
       <c r="C73">
-        <v>-1.791311800653595</v>
+        <v>6.43225259409118</v>
       </c>
       <c r="D73">
-        <v>-0.2722738557386944</v>
+        <v>5.862014946006527</v>
+      </c>
+      <c r="E73">
+        <v>21</v>
       </c>
       <c r="F73">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1638,13 +1845,16 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>-0.2196086885236058</v>
+        <v>-0.5101648136624237</v>
       </c>
       <c r="C74">
-        <v>-1.167029183070124</v>
+        <v>-0.4213371536918765</v>
       </c>
       <c r="D74">
-        <v>0.5099888114002425</v>
+        <v>1.44174444083067</v>
+      </c>
+      <c r="E74">
+        <v>21</v>
       </c>
       <c r="F74">
         <v>2</v>
@@ -1655,13 +1865,16 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>-0.7376409966298705</v>
+        <v>-0.7027193026919548</v>
       </c>
       <c r="C75">
-        <v>-0.3747529568339018</v>
+        <v>0.158680212868057</v>
       </c>
       <c r="D75">
-        <v>0.1134970262342917</v>
+        <v>0.995228975985415</v>
+      </c>
+      <c r="E75">
+        <v>21</v>
       </c>
       <c r="F75">
         <v>2</v>
@@ -1672,13 +1885,16 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>-0.968724012400378</v>
+        <v>-0.9346701505080106</v>
       </c>
       <c r="C76">
-        <v>0.02690933434254955</v>
+        <v>1.109128765572382</v>
       </c>
       <c r="D76">
-        <v>-0.2040061619484515</v>
+        <v>0.2639558624688566</v>
+      </c>
+      <c r="E76">
+        <v>21</v>
       </c>
       <c r="F76">
         <v>1</v>
@@ -1689,13 +1905,16 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>-0.4195968861378541</v>
+        <v>0.1032027863912318</v>
       </c>
       <c r="C77">
-        <v>-1.000338653803478</v>
+        <v>-0.8685740407054229</v>
       </c>
       <c r="D77">
-        <v>0.4775048398253293</v>
+        <v>1.835418890391404</v>
+      </c>
+      <c r="E77">
+        <v>21</v>
       </c>
       <c r="F77">
         <v>2</v>
@@ -1706,13 +1925,16 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>-0.8266689428503267</v>
+        <v>-0.8014035208039891</v>
       </c>
       <c r="C78">
-        <v>-0.2200432865833852</v>
+        <v>1.370442324444554</v>
       </c>
       <c r="D78">
-        <v>-0.2560284459750992</v>
+        <v>1.007760273440626</v>
+      </c>
+      <c r="E78">
+        <v>21</v>
       </c>
       <c r="F78">
         <v>1</v>
@@ -1723,16 +1945,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>-0.3499135431702001</v>
+        <v>-0.4588356381947375</v>
       </c>
       <c r="C79">
-        <v>-0.413800845547801</v>
+        <v>0.4748298369856179</v>
       </c>
       <c r="D79">
-        <v>-0.4268322072915475</v>
+        <v>0.3220854694840177</v>
+      </c>
+      <c r="E79">
+        <v>21</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1740,13 +1965,16 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>-0.4602840637431227</v>
+        <v>-0.5210303441105729</v>
       </c>
       <c r="C80">
-        <v>-0.861539991614154</v>
+        <v>0.8096311485758302</v>
       </c>
       <c r="D80">
-        <v>0.2465479631411448</v>
+        <v>1.500240224697482</v>
+      </c>
+      <c r="E80">
+        <v>21</v>
       </c>
       <c r="F80">
         <v>2</v>
@@ -1757,16 +1985,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>-0.09208280599427593</v>
+        <v>0.05176055013766712</v>
       </c>
       <c r="C81">
-        <v>-0.4805932782913839</v>
+        <v>0.678832889104741</v>
       </c>
       <c r="D81">
-        <v>-0.7754822374709469</v>
+        <v>0.09978790222988509</v>
+      </c>
+      <c r="E81">
+        <v>21</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1774,13 +2005,16 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>-0.6926247116083727</v>
+        <v>-0.7010619153454573</v>
       </c>
       <c r="C82">
-        <v>-0.536344862835507</v>
+        <v>0.4480069173200382</v>
       </c>
       <c r="D82">
-        <v>0.2363604608342704</v>
+        <v>1.259369028415506</v>
+      </c>
+      <c r="E82">
+        <v>21</v>
       </c>
       <c r="F82">
         <v>2</v>
@@ -1791,13 +2025,16 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>-0.1946068320190728</v>
+        <v>-0.3801578814807262</v>
       </c>
       <c r="C83">
-        <v>-1.106743478902456</v>
+        <v>-0.5194778686331695</v>
       </c>
       <c r="D83">
-        <v>0.4014014016329154</v>
+        <v>1.277650335468699</v>
+      </c>
+      <c r="E83">
+        <v>21</v>
       </c>
       <c r="F83">
         <v>2</v>
@@ -1808,16 +2045,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>-0.2991589073656276</v>
+        <v>-0.06828263182934291</v>
       </c>
       <c r="C84">
-        <v>-0.672615704190173</v>
+        <v>0.9030386573127137</v>
       </c>
       <c r="D84">
-        <v>-0.4493872913638306</v>
+        <v>0.05742942718980415</v>
+      </c>
+      <c r="E84">
+        <v>21</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -1825,13 +2065,16 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>-0.2661157268624892</v>
+        <v>0.1471868188194621</v>
       </c>
       <c r="C85">
-        <v>-0.6827977200362321</v>
+        <v>-0.3010470588192315</v>
       </c>
       <c r="D85">
-        <v>-0.2323224757244514</v>
+        <v>0.4552064567222728</v>
+      </c>
+      <c r="E85">
+        <v>21</v>
       </c>
       <c r="F85">
         <v>2</v>
@@ -1842,13 +2085,16 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>-0.5562974578105544</v>
+        <v>-0.7159545088228043</v>
       </c>
       <c r="C86">
-        <v>-0.8675816871750552</v>
+        <v>-0.2514368613787618</v>
       </c>
       <c r="D86">
-        <v>0.4484994190301375</v>
+        <v>1.41030151630325</v>
+      </c>
+      <c r="E86">
+        <v>21</v>
       </c>
       <c r="F86">
         <v>2</v>
@@ -1859,16 +2105,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>-0.7628810067167677</v>
+        <v>-0.9347099572606696</v>
       </c>
       <c r="C87">
-        <v>-0.6110935159901296</v>
+        <v>1.181024832136607</v>
       </c>
       <c r="D87">
-        <v>0.09211764770563313</v>
+        <v>0.9530779275472835</v>
+      </c>
+      <c r="E87">
+        <v>21</v>
       </c>
       <c r="F87">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -1876,13 +2125,16 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>-0.2327690654136595</v>
+        <v>-0.08294064038294768</v>
       </c>
       <c r="C88">
-        <v>-0.9964474133551742</v>
+        <v>-0.3579190150075612</v>
       </c>
       <c r="D88">
-        <v>0.2888336721484273</v>
+        <v>1.333670468657594</v>
+      </c>
+      <c r="E88">
+        <v>21</v>
       </c>
       <c r="F88">
         <v>2</v>
@@ -1893,13 +2145,16 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>-0.3906669780845698</v>
+        <v>-0.2837734766026522</v>
       </c>
       <c r="C89">
-        <v>-0.6517010813051332</v>
+        <v>0.1484038090863566</v>
       </c>
       <c r="D89">
-        <v>-0.01703850139074387</v>
+        <v>0.5989819843989497</v>
+      </c>
+      <c r="E89">
+        <v>21</v>
       </c>
       <c r="F89">
         <v>2</v>
@@ -1910,16 +2165,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>-0.5436583665604414</v>
+        <v>-0.1867374190634193</v>
       </c>
       <c r="C90">
-        <v>-0.5404551761806362</v>
+        <v>1.144197091720609</v>
       </c>
       <c r="D90">
-        <v>-0.11023404093689</v>
+        <v>0.9999615441284601</v>
+      </c>
+      <c r="E90">
+        <v>22</v>
       </c>
       <c r="F90">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -1927,13 +2185,16 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>-1.042380806670729</v>
+        <v>-1.543210955249525</v>
       </c>
       <c r="C91">
-        <v>-0.8323843752152309</v>
+        <v>2.23128460393241</v>
       </c>
       <c r="D91">
-        <v>0.5468951547759995</v>
+        <v>2.84227658615709</v>
+      </c>
+      <c r="E91">
+        <v>22</v>
       </c>
       <c r="F91">
         <v>2</v>
@@ -1944,13 +2205,16 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>-1.04864557046152</v>
+        <v>-1.385893598410551</v>
       </c>
       <c r="C92">
-        <v>-0.4477340414713311</v>
+        <v>2.077454018762957</v>
       </c>
       <c r="D92">
-        <v>0.3080182744212674</v>
+        <v>2.272419581838221</v>
+      </c>
+      <c r="E92">
+        <v>22</v>
       </c>
       <c r="F92">
         <v>2</v>
@@ -1961,16 +2225,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>-0.166103306589721</v>
+        <v>-0.3153951562426306</v>
       </c>
       <c r="C93">
-        <v>-0.7748381270450158</v>
+        <v>0.6100920844556126</v>
       </c>
       <c r="D93">
-        <v>-0.05917498570674889</v>
+        <v>0.274705933615455</v>
+      </c>
+      <c r="E93">
+        <v>22</v>
       </c>
       <c r="F93">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -1978,13 +2245,16 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>-0.9887373053836876</v>
+        <v>-1.425896666513547</v>
       </c>
       <c r="C94">
-        <v>-0.4523985109436899</v>
+        <v>1.402389074875681</v>
       </c>
       <c r="D94">
-        <v>0.3421941349487659</v>
+        <v>1.818680931731972</v>
+      </c>
+      <c r="E94">
+        <v>22</v>
       </c>
       <c r="F94">
         <v>2</v>
@@ -1995,13 +2265,16 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>-0.6924044529886724</v>
+        <v>-0.6189727507173788</v>
       </c>
       <c r="C95">
-        <v>-0.5973797636615397</v>
+        <v>-0.03585704865634454</v>
       </c>
       <c r="D95">
-        <v>0.2994658696626579</v>
+        <v>1.032808418426475</v>
+      </c>
+      <c r="E95">
+        <v>22</v>
       </c>
       <c r="F95">
         <v>2</v>
@@ -2012,13 +2285,16 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>-0.8819432854592244</v>
+        <v>-0.5632549766748753</v>
       </c>
       <c r="C96">
-        <v>-0.569988565076595</v>
+        <v>-0.355682217534553</v>
       </c>
       <c r="D96">
-        <v>0.4635351157993967</v>
+        <v>0.950343800861477</v>
+      </c>
+      <c r="E96">
+        <v>22</v>
       </c>
       <c r="F96">
         <v>2</v>
@@ -2029,13 +2305,16 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>-1.013606253478481</v>
+        <v>-1.249415127910014</v>
       </c>
       <c r="C97">
-        <v>-0.6380659930338157</v>
+        <v>1.40457177808586</v>
       </c>
       <c r="D97">
-        <v>0.5158918773574515</v>
+        <v>2.030595457043907</v>
+      </c>
+      <c r="E97">
+        <v>22</v>
       </c>
       <c r="F97">
         <v>2</v>
@@ -2046,13 +2325,16 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>-1.145130252377125</v>
+        <v>-1.141411785432575</v>
       </c>
       <c r="C98">
-        <v>-0.1192195683519521</v>
+        <v>0.7238801979885735</v>
       </c>
       <c r="D98">
-        <v>0.1592451827755438</v>
+        <v>0.9754243513662139</v>
+      </c>
+      <c r="E98">
+        <v>22</v>
       </c>
       <c r="F98">
         <v>2</v>
@@ -2063,13 +2345,16 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>-0.6783679783772388</v>
+        <v>-0.7719262542161559</v>
       </c>
       <c r="C99">
-        <v>-1.002999175542358</v>
+        <v>0.3358526052703271</v>
       </c>
       <c r="D99">
-        <v>0.6513108275461813</v>
+        <v>1.993457803085168</v>
+      </c>
+      <c r="E99">
+        <v>22</v>
       </c>
       <c r="F99">
         <v>2</v>
@@ -2080,13 +2365,16 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>-1.039644670422502</v>
+        <v>-0.7837010605696677</v>
       </c>
       <c r="C100">
-        <v>-0.005631098937156076</v>
+        <v>1.122895355443322</v>
       </c>
       <c r="D100">
-        <v>0.1837660620091833</v>
+        <v>1.428264261391389</v>
+      </c>
+      <c r="E100">
+        <v>22</v>
       </c>
       <c r="F100">
         <v>2</v>
@@ -2097,13 +2385,16 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>-0.7449313815666159</v>
+        <v>-0.455295164955382</v>
       </c>
       <c r="C101">
-        <v>-0.5498341044096129</v>
+        <v>1.392983442584366</v>
       </c>
       <c r="D101">
-        <v>0.1665730796437087</v>
+        <v>2.227168176898255</v>
+      </c>
+      <c r="E101">
+        <v>22</v>
       </c>
       <c r="F101">
         <v>2</v>
@@ -2114,13 +2405,16 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>-1.15892410837713</v>
+        <v>-0.8370125616835117</v>
       </c>
       <c r="C102">
-        <v>-0.3825753074433825</v>
+        <v>1.322111820061387</v>
       </c>
       <c r="D102">
-        <v>0.3145122722622652</v>
+        <v>2.005565754350187</v>
+      </c>
+      <c r="E102">
+        <v>22</v>
       </c>
       <c r="F102">
         <v>2</v>
@@ -2131,13 +2425,16 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>-0.9393639684463635</v>
+        <v>-0.8859657523984396</v>
       </c>
       <c r="C103">
-        <v>-0.533536367464476</v>
+        <v>1.080963534062665</v>
       </c>
       <c r="D103">
-        <v>0.3523528591856611</v>
+        <v>1.743995735699916</v>
+      </c>
+      <c r="E103">
+        <v>22</v>
       </c>
       <c r="F103">
         <v>2</v>
@@ -2148,13 +2445,16 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>-0.9149872841714599</v>
+        <v>-0.9948422947542117</v>
       </c>
       <c r="C104">
-        <v>-0.6112474289576335</v>
+        <v>1.001512856061516</v>
       </c>
       <c r="D104">
-        <v>0.3693486094888856</v>
+        <v>1.929567516965266</v>
+      </c>
+      <c r="E104">
+        <v>22</v>
       </c>
       <c r="F104">
         <v>2</v>
@@ -2165,13 +2465,16 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>-0.8143562110394722</v>
+        <v>-0.6552230088500649</v>
       </c>
       <c r="C105">
-        <v>-0.4393465453675435</v>
+        <v>0.3106321445216889</v>
       </c>
       <c r="D105">
-        <v>0.1313355167465425</v>
+        <v>1.444925421406343</v>
+      </c>
+      <c r="E105">
+        <v>22</v>
       </c>
       <c r="F105">
         <v>2</v>
@@ -2182,13 +2485,16 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>-1.219413995664749</v>
+        <v>-1.023184990685684</v>
       </c>
       <c r="C106">
-        <v>-0.4877626984194794</v>
+        <v>0.4374316388542409</v>
       </c>
       <c r="D106">
-        <v>0.6182617742461608</v>
+        <v>2.452741342755786</v>
+      </c>
+      <c r="E106">
+        <v>22</v>
       </c>
       <c r="F106">
         <v>2</v>
@@ -2199,13 +2505,16 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>-0.7826493840792415</v>
+        <v>-0.5275973403303869</v>
       </c>
       <c r="C107">
-        <v>-0.4827285353888787</v>
+        <v>0.1702967817504261</v>
       </c>
       <c r="D107">
-        <v>0.2931586830850696</v>
+        <v>1.357606934737716</v>
+      </c>
+      <c r="E107">
+        <v>22</v>
       </c>
       <c r="F107">
         <v>2</v>
@@ -2216,13 +2525,16 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>-0.8289301607292895</v>
+        <v>-0.9137799486831223</v>
       </c>
       <c r="C108">
-        <v>-0.4575999297931904</v>
+        <v>1.029164809337498</v>
       </c>
       <c r="D108">
-        <v>0.3066988225632379</v>
+        <v>1.590043112117864</v>
+      </c>
+      <c r="E108">
+        <v>22</v>
       </c>
       <c r="F108">
         <v>2</v>
@@ -2233,13 +2545,16 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>-0.7784492000231131</v>
+        <v>-0.6520056034417878</v>
       </c>
       <c r="C109">
-        <v>-0.315603929002477</v>
+        <v>0.6434672511162729</v>
       </c>
       <c r="D109">
-        <v>0.1285690001938522</v>
+        <v>0.6566388020445301</v>
+      </c>
+      <c r="E109">
+        <v>22</v>
       </c>
       <c r="F109">
         <v>2</v>
@@ -2250,13 +2565,16 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>-1.044800561596049</v>
+        <v>-0.8190198648629712</v>
       </c>
       <c r="C110">
-        <v>-0.5406006721545182</v>
+        <v>0.9238688172899302</v>
       </c>
       <c r="D110">
-        <v>0.4797401573652491</v>
+        <v>1.972853125466631</v>
+      </c>
+      <c r="E110">
+        <v>22</v>
       </c>
       <c r="F110">
         <v>2</v>
@@ -2267,13 +2585,16 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>-0.6587998048116637</v>
+        <v>-0.4828825927458886</v>
       </c>
       <c r="C111">
-        <v>-0.4534801392011771</v>
+        <v>0.1746439419155191</v>
       </c>
       <c r="D111">
-        <v>0.1515315005256526</v>
+        <v>0.8601422866939045</v>
+      </c>
+      <c r="E111">
+        <v>22</v>
       </c>
       <c r="F111">
         <v>2</v>
@@ -2284,13 +2605,16 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>-0.7597402073678825</v>
+        <v>-0.7691069515225868</v>
       </c>
       <c r="C112">
-        <v>-0.5127236692776818</v>
+        <v>1.071065140773384</v>
       </c>
       <c r="D112">
-        <v>0.1530040460266968</v>
+        <v>1.633317945912081</v>
+      </c>
+      <c r="E112">
+        <v>22</v>
       </c>
       <c r="F112">
         <v>2</v>
@@ -2301,13 +2625,16 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>-1.108430896525158</v>
+        <v>-1.334941767833208</v>
       </c>
       <c r="C113">
-        <v>-0.05762134225186341</v>
+        <v>0.9744881478348032</v>
       </c>
       <c r="D113">
-        <v>0.03619244735823518</v>
+        <v>1.604610813996705</v>
+      </c>
+      <c r="E113">
+        <v>22</v>
       </c>
       <c r="F113">
         <v>2</v>
@@ -2318,13 +2645,16 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>-0.9807141913447162</v>
+        <v>-0.9209217258919292</v>
       </c>
       <c r="C114">
-        <v>-0.5551576946794181</v>
+        <v>1.340239015885929</v>
       </c>
       <c r="D114">
-        <v>0.3740687632642782</v>
+        <v>2.269015717385582</v>
+      </c>
+      <c r="E114">
+        <v>22</v>
       </c>
       <c r="F114">
         <v>2</v>
@@ -2335,13 +2665,16 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>-1.359895695730259</v>
+        <v>-1.924609887393717</v>
       </c>
       <c r="C115">
-        <v>-0.3640848703208386</v>
+        <v>2.075395138457085</v>
       </c>
       <c r="D115">
-        <v>0.5528811085905851</v>
+        <v>2.368177736519283</v>
+      </c>
+      <c r="E115">
+        <v>22</v>
       </c>
       <c r="F115">
         <v>2</v>
@@ -2352,13 +2685,16 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>-0.8058908357536287</v>
+        <v>-0.3466671857564989</v>
       </c>
       <c r="C116">
-        <v>-0.5991929835003282</v>
+        <v>0.09951204950279247</v>
       </c>
       <c r="D116">
-        <v>0.3943276984225041</v>
+        <v>2.704954565729984</v>
+      </c>
+      <c r="E116">
+        <v>22</v>
       </c>
       <c r="F116">
         <v>2</v>
@@ -2369,13 +2705,16 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>-1.149171536341815</v>
+        <v>-1.39364505667092</v>
       </c>
       <c r="C117">
-        <v>-0.1843860527515847</v>
+        <v>1.282963268557606</v>
       </c>
       <c r="D117">
-        <v>0.2584520924414647</v>
+        <v>1.327299746259809</v>
+      </c>
+      <c r="E117">
+        <v>22</v>
       </c>
       <c r="F117">
         <v>2</v>
@@ -2386,13 +2725,16 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>-1.048860703631608</v>
+        <v>-1.466904353218723</v>
       </c>
       <c r="C118">
-        <v>-0.5446873785094768</v>
+        <v>0.6228886542853816</v>
       </c>
       <c r="D118">
-        <v>0.6427603467126731</v>
+        <v>2.356986188074194</v>
+      </c>
+      <c r="E118">
+        <v>22</v>
       </c>
       <c r="F118">
         <v>2</v>
@@ -2403,13 +2745,16 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>-0.8675391852122465</v>
+        <v>-0.9414403746130472</v>
       </c>
       <c r="C119">
-        <v>-0.5082735897742088</v>
+        <v>0.08256376438328566</v>
       </c>
       <c r="D119">
-        <v>0.3674640328213565</v>
+        <v>0.9158183321893988</v>
+      </c>
+      <c r="E119">
+        <v>22</v>
       </c>
       <c r="F119">
         <v>2</v>
@@ -2420,13 +2765,16 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>-1.373678597104426</v>
+        <v>-1.328761336331036</v>
       </c>
       <c r="C120">
-        <v>-0.1053672386142399</v>
+        <v>1.064742506713694</v>
       </c>
       <c r="D120">
-        <v>0.2948239112214436</v>
+        <v>1.844786337588669</v>
+      </c>
+      <c r="E120">
+        <v>22</v>
       </c>
       <c r="F120">
         <v>2</v>
@@ -2437,13 +2785,16 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>-0.6163746055057584</v>
+        <v>-0.7424149179988867</v>
       </c>
       <c r="C121">
-        <v>-0.113443881640474</v>
+        <v>0.9397553382507817</v>
       </c>
       <c r="D121">
-        <v>-0.5327225958587753</v>
+        <v>-0.04949573527997231</v>
+      </c>
+      <c r="E121">
+        <v>23</v>
       </c>
       <c r="F121">
         <v>1</v>
@@ -2454,16 +2805,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>-0.1800582066182326</v>
+        <v>-0.1494838444566043</v>
       </c>
       <c r="C122">
-        <v>-0.3838586477626366</v>
+        <v>2.397018020115978</v>
       </c>
       <c r="D122">
-        <v>-0.9265216964753435</v>
+        <v>0.2055917758715279</v>
+      </c>
+      <c r="E122">
+        <v>23</v>
       </c>
       <c r="F122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2471,16 +2825,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>-0.4805408498240997</v>
+        <v>-0.1338418177005362</v>
       </c>
       <c r="C123">
-        <v>-0.694668011830861</v>
+        <v>1.06656122953555</v>
       </c>
       <c r="D123">
-        <v>-0.1134142604115011</v>
+        <v>1.043638178021376</v>
+      </c>
+      <c r="E123">
+        <v>23</v>
       </c>
       <c r="F123">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2488,13 +2845,16 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>-0.3502253480241365</v>
+        <v>-0.03443533008491995</v>
       </c>
       <c r="C124">
-        <v>-0.2074078634360109</v>
+        <v>1.119420424214068</v>
       </c>
       <c r="D124">
-        <v>-0.6973824449771282</v>
+        <v>0.2001444192549509</v>
+      </c>
+      <c r="E124">
+        <v>23</v>
       </c>
       <c r="F124">
         <v>1</v>
@@ -2505,13 +2865,16 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>-0.2081342413355978</v>
+        <v>-0.04108377059883739</v>
       </c>
       <c r="C125">
-        <v>-0.09707591211198519</v>
+        <v>0.9155523822524637</v>
       </c>
       <c r="D125">
-        <v>-0.9363204930494271</v>
+        <v>-0.5688821213697202</v>
+      </c>
+      <c r="E125">
+        <v>23</v>
       </c>
       <c r="F125">
         <v>1</v>
@@ -2522,13 +2885,16 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>-0.8052905530471004</v>
+        <v>-0.5373471915169127</v>
       </c>
       <c r="C126">
-        <v>-0.5536543304964556</v>
+        <v>2.000639600696128</v>
       </c>
       <c r="D126">
-        <v>-0.07857917582050644</v>
+        <v>2.135634450553547</v>
+      </c>
+      <c r="E126">
+        <v>23</v>
       </c>
       <c r="F126">
         <v>2</v>
@@ -2539,16 +2905,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>-0.02775347506640341</v>
+        <v>0.7046777417104516</v>
       </c>
       <c r="C127">
-        <v>-0.5317499293382273</v>
+        <v>0.7361386993930848</v>
       </c>
       <c r="D127">
-        <v>-0.7256422947790225</v>
+        <v>0.3973144790599422</v>
+      </c>
+      <c r="E127">
+        <v>23</v>
       </c>
       <c r="F127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2556,13 +2925,16 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.4328885595015016</v>
+        <v>1.482808781932814</v>
       </c>
       <c r="C128">
-        <v>-0.8832420398386089</v>
+        <v>0.8831937376173206</v>
       </c>
       <c r="D128">
-        <v>-0.8165797137708545</v>
+        <v>0.751907110399055</v>
+      </c>
+      <c r="E128">
+        <v>23</v>
       </c>
       <c r="F128">
         <v>0</v>
@@ -2573,13 +2945,16 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>-0.3788693981267511</v>
+        <v>-0.6876184623627872</v>
       </c>
       <c r="C129">
-        <v>-0.5718800876245282</v>
+        <v>-0.03293331490447804</v>
       </c>
       <c r="D129">
-        <v>-0.08802755846681498</v>
+        <v>1.798331087224704</v>
+      </c>
+      <c r="E129">
+        <v>23</v>
       </c>
       <c r="F129">
         <v>2</v>
@@ -2590,16 +2965,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>-0.6814388609503769</v>
+        <v>0.7316498720286432</v>
       </c>
       <c r="C130">
-        <v>-0.244978957267581</v>
+        <v>1.174299216084787</v>
       </c>
       <c r="D130">
-        <v>-0.3381232129749477</v>
+        <v>1.90498280361284</v>
+      </c>
+      <c r="E130">
+        <v>23</v>
       </c>
       <c r="F130">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2607,16 +2985,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>-0.381790742625891</v>
+        <v>0.2300149772852778</v>
       </c>
       <c r="C131">
-        <v>-0.4659381959035597</v>
+        <v>0.428810283214198</v>
       </c>
       <c r="D131">
-        <v>-0.642713087096487</v>
+        <v>-0.01586334625892943</v>
+      </c>
+      <c r="E131">
+        <v>23</v>
       </c>
       <c r="F131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2624,13 +3005,16 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>-0.8140458853458246</v>
+        <v>-0.3233765357504738</v>
       </c>
       <c r="C132">
-        <v>-0.2612714145799412</v>
+        <v>0.6991077338845036</v>
       </c>
       <c r="D132">
-        <v>-0.1678076463329471</v>
+        <v>1.012422821878837</v>
+      </c>
+      <c r="E132">
+        <v>23</v>
       </c>
       <c r="F132">
         <v>2</v>
@@ -2641,16 +3025,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>-0.3422408277258525</v>
+        <v>-0.003075596826692117</v>
       </c>
       <c r="C133">
-        <v>-0.779553302881324</v>
+        <v>3.382878154050999</v>
       </c>
       <c r="D133">
-        <v>-0.790543662526365</v>
+        <v>1.532405244826774</v>
+      </c>
+      <c r="E133">
+        <v>23</v>
       </c>
       <c r="F133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -2658,13 +3045,16 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>-0.7112737461091727</v>
+        <v>-0.190203983463251</v>
       </c>
       <c r="C134">
-        <v>-0.00989747092228685</v>
+        <v>2.215996353233279</v>
       </c>
       <c r="D134">
-        <v>-0.9079342337304911</v>
+        <v>0.2703525114110925</v>
+      </c>
+      <c r="E134">
+        <v>23</v>
       </c>
       <c r="F134">
         <v>1</v>
@@ -2675,13 +3065,16 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>-0.5429081358846575</v>
+        <v>0.03507940047399227</v>
       </c>
       <c r="C135">
-        <v>-0.04616231318494551</v>
+        <v>1.149693860828064</v>
       </c>
       <c r="D135">
-        <v>-0.6761359442545889</v>
+        <v>0.3442418834031097</v>
+      </c>
+      <c r="E135">
+        <v>23</v>
       </c>
       <c r="F135">
         <v>1</v>
@@ -2692,13 +3085,16 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>-0.7614544239623722</v>
+        <v>-0.6100141932056522</v>
       </c>
       <c r="C136">
-        <v>-0.3219379781767433</v>
+        <v>0.4048734009904646</v>
       </c>
       <c r="D136">
-        <v>-0.1217306676359954</v>
+        <v>1.164457946546063</v>
+      </c>
+      <c r="E136">
+        <v>23</v>
       </c>
       <c r="F136">
         <v>2</v>
@@ -2709,16 +3105,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>-0.3877900559473972</v>
+        <v>-0.1070755506237138</v>
       </c>
       <c r="C137">
-        <v>-0.463264188676134</v>
+        <v>1.327326268570774</v>
       </c>
       <c r="D137">
-        <v>-0.6312016315983662</v>
+        <v>0.6853275151183157</v>
+      </c>
+      <c r="E137">
+        <v>23</v>
       </c>
       <c r="F137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -2726,16 +3125,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>-0.6786033653496759</v>
+        <v>0.1729811376158067</v>
       </c>
       <c r="C138">
-        <v>-0.2327315770507212</v>
+        <v>1.037456712453495</v>
       </c>
       <c r="D138">
-        <v>-0.3618184887320165</v>
+        <v>1.199275312525506</v>
+      </c>
+      <c r="E138">
+        <v>23</v>
       </c>
       <c r="F138">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -2743,13 +3145,16 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>-0.8283379897462886</v>
+        <v>-0.2362286780538057</v>
       </c>
       <c r="C139">
-        <v>-0.4117863204334191</v>
+        <v>0.9304893200710788</v>
       </c>
       <c r="D139">
-        <v>-0.1947887814538863</v>
+        <v>1.081387046735054</v>
+      </c>
+      <c r="E139">
+        <v>23</v>
       </c>
       <c r="F139">
         <v>2</v>
@@ -2760,13 +3165,16 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>-0.3861243077085303</v>
+        <v>0.4487435548038686</v>
       </c>
       <c r="C140">
-        <v>-0.189524766164599</v>
+        <v>1.019975637292667</v>
       </c>
       <c r="D140">
-        <v>-0.7048103839945866</v>
+        <v>0.7992115407601205</v>
+      </c>
+      <c r="E140">
+        <v>23</v>
       </c>
       <c r="F140">
         <v>1</v>
@@ -2777,13 +3185,16 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>-0.8092915422973346</v>
+        <v>-0.7825747134926151</v>
       </c>
       <c r="C141">
-        <v>-0.1236349637633038</v>
+        <v>1.276615851752572</v>
       </c>
       <c r="D141">
-        <v>-0.4409858398106283</v>
+        <v>0.7723451641599804</v>
+      </c>
+      <c r="E141">
+        <v>23</v>
       </c>
       <c r="F141">
         <v>1</v>
@@ -2794,16 +3205,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>-0.2508385337239905</v>
+        <v>-0.02537620003748831</v>
       </c>
       <c r="C142">
-        <v>-0.4301010021698979</v>
+        <v>0.6224037768898592</v>
       </c>
       <c r="D142">
-        <v>-0.5628594754927596</v>
+        <v>0.2348876217658185</v>
+      </c>
+      <c r="E142">
+        <v>23</v>
       </c>
       <c r="F142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -2811,13 +3225,16 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>-0.63672519669672</v>
+        <v>-0.5031065693945975</v>
       </c>
       <c r="C143">
-        <v>-0.02450523351220907</v>
+        <v>1.077764796040309</v>
       </c>
       <c r="D143">
-        <v>-0.5760245220290066</v>
+        <v>0.09692348612878077</v>
+      </c>
+      <c r="E143">
+        <v>23</v>
       </c>
       <c r="F143">
         <v>1</v>
@@ -2828,13 +3245,16 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>-0.7137063014283744</v>
+        <v>-0.6583572474899984</v>
       </c>
       <c r="C144">
-        <v>0.1242687942500636</v>
+        <v>1.085826762622039</v>
       </c>
       <c r="D144">
-        <v>-0.8577528017210044</v>
+        <v>0.1520616232480633</v>
+      </c>
+      <c r="E144">
+        <v>23</v>
       </c>
       <c r="F144">
         <v>1</v>
@@ -2845,16 +3265,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>-0.1881470534667551</v>
+        <v>0.05117489148008958</v>
       </c>
       <c r="C145">
-        <v>-0.2773152016829796</v>
+        <v>2.179574707509154</v>
       </c>
       <c r="D145">
-        <v>-1.154741805514365</v>
+        <v>1.047498083314839</v>
+      </c>
+      <c r="E145">
+        <v>23</v>
       </c>
       <c r="F145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -2862,16 +3285,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>-0.4367153624781068</v>
+        <v>-0.535948691388934</v>
       </c>
       <c r="C146">
-        <v>-0.473893954281328</v>
+        <v>1.838734274997386</v>
       </c>
       <c r="D146">
-        <v>-0.4307398358797142</v>
+        <v>0.9437467772597178</v>
+      </c>
+      <c r="E146">
+        <v>23</v>
       </c>
       <c r="F146">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -2879,16 +3305,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>0.0002125278417980936</v>
+        <v>0.9924546182291473</v>
       </c>
       <c r="C147">
-        <v>-0.8620182064489554</v>
+        <v>1.554993597544659</v>
       </c>
       <c r="D147">
-        <v>-0.4081028974713358</v>
+        <v>2.365264731383156</v>
+      </c>
+      <c r="E147">
+        <v>23</v>
       </c>
       <c r="F147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -2896,16 +3325,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>-0.4862597426940648</v>
+        <v>0.2968640347045747</v>
       </c>
       <c r="C148">
-        <v>0.2099546971235471</v>
+        <v>1.413881592186578</v>
       </c>
       <c r="D148">
-        <v>-0.9725058419059366</v>
+        <v>1.515477040777097</v>
+      </c>
+      <c r="E148">
+        <v>23</v>
       </c>
       <c r="F148">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -2913,13 +3345,16 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>-0.4145144412315058</v>
+        <v>-0.4151201736501128</v>
       </c>
       <c r="C149">
-        <v>-0.2366545800319312</v>
+        <v>0.9462335940019524</v>
       </c>
       <c r="D149">
-        <v>-0.6147309947195148</v>
+        <v>0.3348835757999573</v>
+      </c>
+      <c r="E149">
+        <v>24</v>
       </c>
       <c r="F149">
         <v>1</v>
@@ -2930,16 +3365,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>-0.4214348312473257</v>
+        <v>-0.4165002798524683</v>
       </c>
       <c r="C150">
-        <v>-0.4648080239591344</v>
+        <v>0.5845309319612679</v>
       </c>
       <c r="D150">
-        <v>-0.3049409680107611</v>
+        <v>0.5360923769897321</v>
+      </c>
+      <c r="E150">
+        <v>24</v>
       </c>
       <c r="F150">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -2947,13 +3385,16 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>-0.5438957154920635</v>
+        <v>-0.2512454157432287</v>
       </c>
       <c r="C151">
-        <v>-0.09585865001299876</v>
+        <v>0.6679710879869105</v>
       </c>
       <c r="D151">
-        <v>-0.4958095342438119</v>
+        <v>0.2204181754309043</v>
+      </c>
+      <c r="E151">
+        <v>24</v>
       </c>
       <c r="F151">
         <v>1</v>
@@ -2964,13 +3405,16 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>-2.359949502662357</v>
+        <v>-2.936723251647174</v>
       </c>
       <c r="C152">
-        <v>-0.7959656581488443</v>
+        <v>6.760116848942191</v>
       </c>
       <c r="D152">
-        <v>0.6058196594966939</v>
+        <v>6.829230621877865</v>
+      </c>
+      <c r="E152">
+        <v>24</v>
       </c>
       <c r="F152">
         <v>2</v>
@@ -2981,13 +3425,16 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>-1.824086488705631</v>
+        <v>-1.075138057898093</v>
       </c>
       <c r="C153">
-        <v>-0.6639474503879159</v>
+        <v>3.001331683772978</v>
       </c>
       <c r="D153">
-        <v>0.2430922376952211</v>
+        <v>3.918041765099169</v>
+      </c>
+      <c r="E153">
+        <v>24</v>
       </c>
       <c r="F153">
         <v>2</v>
@@ -2998,16 +3445,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>-0.5289083722762654</v>
+        <v>-0.4208213455360373</v>
       </c>
       <c r="C154">
-        <v>-0.2097804504274292</v>
+        <v>0.5713586909829164</v>
       </c>
       <c r="D154">
-        <v>-0.4571332617191157</v>
+        <v>0.6877434878433767</v>
+      </c>
+      <c r="E154">
+        <v>24</v>
       </c>
       <c r="F154">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3015,16 +3465,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>-1.238514004868505</v>
+        <v>1.419855460205909</v>
       </c>
       <c r="C155">
-        <v>-0.5732528709715332</v>
+        <v>2.922299867958744</v>
       </c>
       <c r="D155">
-        <v>-0.08003311365250132</v>
+        <v>2.794662479263641</v>
+      </c>
+      <c r="E155">
+        <v>24</v>
       </c>
       <c r="F155">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3032,13 +3485,16 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>-0.360943954886884</v>
+        <v>6.305939697593603</v>
       </c>
       <c r="C156">
-        <v>-1.58073328622551</v>
+        <v>6.139251990657322</v>
       </c>
       <c r="D156">
-        <v>-1.175038782455248</v>
+        <v>2.899398313727496</v>
+      </c>
+      <c r="E156">
+        <v>24</v>
       </c>
       <c r="F156">
         <v>0</v>
@@ -3049,16 +3505,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>-0.24895872621336</v>
+        <v>-0.1153347457252416</v>
       </c>
       <c r="C157">
-        <v>-0.6403755317737638</v>
+        <v>4.166577206002468</v>
       </c>
       <c r="D157">
-        <v>-0.7543143179021276</v>
+        <v>1.509988139295448</v>
+      </c>
+      <c r="E157">
+        <v>24</v>
       </c>
       <c r="F157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3066,16 +3525,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>-0.9480245399897542</v>
+        <v>2.934098807242577</v>
       </c>
       <c r="C158">
-        <v>-0.9907146607580182</v>
+        <v>3.357383226912227</v>
       </c>
       <c r="D158">
-        <v>-0.298178652378254</v>
+        <v>2.550618509024314</v>
+      </c>
+      <c r="E158">
+        <v>24</v>
       </c>
       <c r="F158">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3083,16 +3545,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>-0.1630917461030874</v>
+        <v>0.256040017015163</v>
       </c>
       <c r="C159">
-        <v>-0.9201817914339614</v>
+        <v>1.546642627522492</v>
       </c>
       <c r="D159">
-        <v>-0.2377383816517867</v>
+        <v>1.575465579588732</v>
+      </c>
+      <c r="E159">
+        <v>24</v>
       </c>
       <c r="F159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3100,13 +3565,16 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>-0.4860562459453498</v>
+        <v>1.161072795482346</v>
       </c>
       <c r="C160">
-        <v>-0.7412993830978434</v>
+        <v>1.985365982054542</v>
       </c>
       <c r="D160">
-        <v>-0.1858196408575531</v>
+        <v>2.376539422068108</v>
+      </c>
+      <c r="E160">
+        <v>24</v>
       </c>
       <c r="F160">
         <v>2</v>
@@ -3117,16 +3585,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>-0.8793735372556923</v>
+        <v>0.2514829034791346</v>
       </c>
       <c r="C161">
-        <v>-0.07065906800735947</v>
+        <v>2.043719101180132</v>
       </c>
       <c r="D161">
-        <v>-0.8203025563038652</v>
+        <v>2.189089493103693</v>
+      </c>
+      <c r="E161">
+        <v>24</v>
       </c>
       <c r="F161">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3134,13 +3605,16 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>-0.1198712346585208</v>
+        <v>0.7103749331915524</v>
       </c>
       <c r="C162">
-        <v>-0.3937752103178939</v>
+        <v>0.1312708419366874</v>
       </c>
       <c r="D162">
-        <v>-0.5712216581614347</v>
+        <v>0.2932880728021541</v>
+      </c>
+      <c r="E162">
+        <v>24</v>
       </c>
       <c r="F162">
         <v>0</v>
@@ -3151,16 +3625,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>-1.321578630903837</v>
+        <v>2.483306541371586</v>
       </c>
       <c r="C163">
-        <v>-0.6145144128003885</v>
+        <v>4.628306666952601</v>
       </c>
       <c r="D163">
-        <v>-0.5327646285543689</v>
+        <v>3.284231347361937</v>
+      </c>
+      <c r="E163">
+        <v>24</v>
       </c>
       <c r="F163">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3168,13 +3645,16 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>-0.460414120034446</v>
+        <v>-0.7251332409155019</v>
       </c>
       <c r="C164">
-        <v>-1.230809472811369</v>
+        <v>1.691535130402643</v>
       </c>
       <c r="D164">
-        <v>0.1413749872268854</v>
+        <v>3.831157073123475</v>
+      </c>
+      <c r="E164">
+        <v>24</v>
       </c>
       <c r="F164">
         <v>2</v>
@@ -3185,13 +3665,16 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>-0.6181888166448604</v>
+        <v>0.1622630174860905</v>
       </c>
       <c r="C165">
-        <v>-0.4428598810466234</v>
+        <v>1.879262342215724</v>
       </c>
       <c r="D165">
-        <v>-0.2256393620630289</v>
+        <v>2.194595715755067</v>
+      </c>
+      <c r="E165">
+        <v>24</v>
       </c>
       <c r="F165">
         <v>2</v>
@@ -3202,13 +3685,16 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>-1.01668626311129</v>
+        <v>-0.5146251359852849</v>
       </c>
       <c r="C166">
-        <v>-0.4872079922394609</v>
+        <v>1.102792732127758</v>
       </c>
       <c r="D166">
-        <v>0.1775172156239778</v>
+        <v>2.707305284974509</v>
+      </c>
+      <c r="E166">
+        <v>24</v>
       </c>
       <c r="F166">
         <v>2</v>
@@ -3219,13 +3705,16 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>-0.6752544308981169</v>
+        <v>-0.3635006163397068</v>
       </c>
       <c r="C167">
-        <v>-0.2420451815327252</v>
+        <v>0.5682493763749594</v>
       </c>
       <c r="D167">
-        <v>-0.04224823772125302</v>
+        <v>1.063802770027819</v>
+      </c>
+      <c r="E167">
+        <v>24</v>
       </c>
       <c r="F167">
         <v>2</v>
@@ -3236,16 +3725,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>-0.7016339410494832</v>
+        <v>-0.8418912794488252</v>
       </c>
       <c r="C168">
-        <v>-0.2532486268237128</v>
+        <v>0.5390561901769461</v>
       </c>
       <c r="D168">
-        <v>-0.3148238716366146</v>
+        <v>1.239719476999966</v>
+      </c>
+      <c r="E168">
+        <v>24</v>
       </c>
       <c r="F168">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3253,13 +3745,16 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>-1.223553437418695</v>
+        <v>-0.7964619873418898</v>
       </c>
       <c r="C169">
-        <v>0.01104605868986056</v>
+        <v>0.6469094707772239</v>
       </c>
       <c r="D169">
-        <v>0.1514086188389732</v>
+        <v>1.630416803587524</v>
+      </c>
+      <c r="E169">
+        <v>24</v>
       </c>
       <c r="F169">
         <v>2</v>
@@ -3270,16 +3765,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>-0.8740593610098151</v>
+        <v>3.079458742475266</v>
       </c>
       <c r="C170">
-        <v>-1.050982959520087</v>
+        <v>4.76519959064718</v>
       </c>
       <c r="D170">
-        <v>-0.6320979026151919</v>
+        <v>2.885781514546856</v>
+      </c>
+      <c r="E170">
+        <v>25</v>
       </c>
       <c r="F170">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3287,13 +3785,16 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>-0.2152666683967635</v>
+        <v>0.08976862053441148</v>
       </c>
       <c r="C171">
-        <v>-0.05219379904492694</v>
+        <v>1.265573781023369</v>
       </c>
       <c r="D171">
-        <v>-0.9177004152063738</v>
+        <v>0.6217413693604873</v>
+      </c>
+      <c r="E171">
+        <v>25</v>
       </c>
       <c r="F171">
         <v>1</v>
@@ -3304,16 +3805,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>-0.08889289239467002</v>
+        <v>0.3468368739559881</v>
       </c>
       <c r="C172">
-        <v>-0.4638812668699118</v>
+        <v>-0.252883197957717</v>
       </c>
       <c r="D172">
-        <v>-0.3746669010488598</v>
+        <v>0.5705400719438813</v>
+      </c>
+      <c r="E172">
+        <v>25</v>
       </c>
       <c r="F172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3321,16 +3825,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>-0.3442847981398413</v>
+        <v>0.234863169119136</v>
       </c>
       <c r="C173">
-        <v>-0.1968461642699569</v>
+        <v>0.6630145561488291</v>
       </c>
       <c r="D173">
-        <v>-0.4300176732539992</v>
+        <v>0.975217088011192</v>
+      </c>
+      <c r="E173">
+        <v>25</v>
       </c>
       <c r="F173">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3338,16 +3845,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>-0.005279475225239527</v>
+        <v>0.1427279277318616</v>
       </c>
       <c r="C174">
-        <v>-0.5214600038107993</v>
+        <v>-0.08833324316263336</v>
       </c>
       <c r="D174">
-        <v>-0.4425065814206057</v>
+        <v>0.3922367869129614</v>
+      </c>
+      <c r="E174">
+        <v>25</v>
       </c>
       <c r="F174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3355,13 +3865,16 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>-0.3469555134216652</v>
+        <v>-0.5421169644251358</v>
       </c>
       <c r="C175">
-        <v>-0.3925212412164787</v>
+        <v>0.1183895344630784</v>
       </c>
       <c r="D175">
-        <v>-0.1631353328893729</v>
+        <v>0.1960203158493506</v>
+      </c>
+      <c r="E175">
+        <v>25</v>
       </c>
       <c r="F175">
         <v>2</v>
@@ -3372,16 +3885,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>0.1248453032579358</v>
+        <v>-0.001693267678502863</v>
       </c>
       <c r="C176">
-        <v>-0.231388382178946</v>
+        <v>0.3760293366501915</v>
       </c>
       <c r="D176">
-        <v>-0.8315621590293452</v>
+        <v>0.1021840505937875</v>
+      </c>
+      <c r="E176">
+        <v>25</v>
       </c>
       <c r="F176">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3389,13 +3905,16 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>-0.5887222877477148</v>
+        <v>-0.5611788322125374</v>
       </c>
       <c r="C177">
-        <v>-0.05599099387494247</v>
+        <v>0.6240198037629296</v>
       </c>
       <c r="D177">
-        <v>-0.4860371433539417</v>
+        <v>0.1413093894283508</v>
+      </c>
+      <c r="E177">
+        <v>25</v>
       </c>
       <c r="F177">
         <v>1</v>
@@ -3406,16 +3925,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>-0.4268816453330501</v>
+        <v>-0.4310157292785624</v>
       </c>
       <c r="C178">
-        <v>-0.3391517383052998</v>
+        <v>0.6738109050659948</v>
       </c>
       <c r="D178">
-        <v>-0.2561519745957562</v>
+        <v>0.2295469289520669</v>
+      </c>
+      <c r="E178">
+        <v>25</v>
       </c>
       <c r="F178">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3423,16 +3945,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>-0.1449452079356788</v>
+        <v>0.04416117940401731</v>
       </c>
       <c r="C179">
-        <v>-0.3329987325950157</v>
+        <v>0.6338206061031179</v>
       </c>
       <c r="D179">
-        <v>-0.6490451131603574</v>
+        <v>0.1850712025604112</v>
+      </c>
+      <c r="E179">
+        <v>25</v>
       </c>
       <c r="F179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3440,13 +3965,16 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>0.1602178873520457</v>
+        <v>0.3654221795149238</v>
       </c>
       <c r="C180">
-        <v>-1.082365999304219</v>
+        <v>-1.282325347543806</v>
       </c>
       <c r="D180">
-        <v>0.2940938525209947</v>
+        <v>1.236768235706702</v>
+      </c>
+      <c r="E180">
+        <v>25</v>
       </c>
       <c r="F180">
         <v>2</v>
@@ -3457,13 +3985,16 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>-0.2732841673943886</v>
+        <v>0.03597988146013409</v>
       </c>
       <c r="C181">
-        <v>-0.4041127481056757</v>
+        <v>-0.4237906793871952</v>
       </c>
       <c r="D181">
-        <v>-0.2111173174558253</v>
+        <v>0.9260476630282694</v>
+      </c>
+      <c r="E181">
+        <v>25</v>
       </c>
       <c r="F181">
         <v>2</v>
@@ -3474,16 +4005,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>-0.06751536376111184</v>
+        <v>-0.1789467787858167</v>
       </c>
       <c r="C182">
-        <v>-0.1543381465871628</v>
+        <v>-0.3266656739608976</v>
       </c>
       <c r="D182">
-        <v>-0.5967523444198753</v>
+        <v>0.4269234489697317</v>
+      </c>
+      <c r="E182">
+        <v>25</v>
       </c>
       <c r="F182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -3491,16 +4025,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>-0.07078479174708913</v>
+        <v>0.09836403809368577</v>
       </c>
       <c r="C183">
-        <v>-0.4343353667340761</v>
+        <v>0.3142297395660855</v>
       </c>
       <c r="D183">
-        <v>-0.4948442052015129</v>
+        <v>0.01419895764362455</v>
+      </c>
+      <c r="E183">
+        <v>25</v>
       </c>
       <c r="F183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -3508,13 +4045,16 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>-0.4566223260114701</v>
+        <v>-0.6479036013306041</v>
       </c>
       <c r="C184">
-        <v>-0.00691113946285285</v>
+        <v>0.6065566348389011</v>
       </c>
       <c r="D184">
-        <v>-0.7134618846874701</v>
+        <v>-0.4464829576754865</v>
+      </c>
+      <c r="E184">
+        <v>25</v>
       </c>
       <c r="F184">
         <v>1</v>
@@ -3525,13 +4065,16 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>-0.4810893718064797</v>
+        <v>-0.2538277415684008</v>
       </c>
       <c r="C185">
-        <v>0.1664729976637228</v>
+        <v>0.9659255990961342</v>
       </c>
       <c r="D185">
-        <v>-0.7229666708118538</v>
+        <v>-0.09608551672602483</v>
+      </c>
+      <c r="E185">
+        <v>25</v>
       </c>
       <c r="F185">
         <v>1</v>
@@ -3542,13 +4085,16 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>-0.423179275162422</v>
+        <v>-0.08361211563567872</v>
       </c>
       <c r="C186">
-        <v>-0.1701118953628626</v>
+        <v>0.2452682099393161</v>
       </c>
       <c r="D186">
-        <v>-0.4690618613403955</v>
+        <v>0.1758536034530416</v>
+      </c>
+      <c r="E186">
+        <v>25</v>
       </c>
       <c r="F186">
         <v>1</v>
@@ -3559,13 +4105,16 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>-0.5045574513943704</v>
+        <v>0.1477207601659253</v>
       </c>
       <c r="C187">
-        <v>0.4215815031703</v>
+        <v>0.7756856235656969</v>
       </c>
       <c r="D187">
-        <v>-0.8404700241624509</v>
+        <v>-0.0500669434385882</v>
+      </c>
+      <c r="E187">
+        <v>25</v>
       </c>
       <c r="F187">
         <v>1</v>
@@ -3576,13 +4125,16 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>-0.6165314427929368</v>
+        <v>-0.509306497733656</v>
       </c>
       <c r="C188">
-        <v>-0.2638542287237488</v>
+        <v>0.03759139275638529</v>
       </c>
       <c r="D188">
-        <v>-0.1520441808422391</v>
+        <v>0.4512718475973653</v>
+      </c>
+      <c r="E188">
+        <v>25</v>
       </c>
       <c r="F188">
         <v>2</v>
@@ -3593,13 +4145,16 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>-0.2186038463709314</v>
+        <v>0.627660079006893</v>
       </c>
       <c r="C189">
-        <v>-0.7424512063934643</v>
+        <v>-1.085847741789493</v>
       </c>
       <c r="D189">
-        <v>-0.0663204332088364</v>
+        <v>1.161380571890837</v>
+      </c>
+      <c r="E189">
+        <v>25</v>
       </c>
       <c r="F189">
         <v>2</v>
@@ -3610,16 +4165,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>-0.3870765569707135</v>
+        <v>-0.1910403160380539</v>
       </c>
       <c r="C190">
-        <v>-0.3587946138218968</v>
+        <v>0.7113473022655784</v>
       </c>
       <c r="D190">
-        <v>-0.3429345111811676</v>
+        <v>0.6019940668658373</v>
+      </c>
+      <c r="E190">
+        <v>25</v>
       </c>
       <c r="F190">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -3627,16 +4185,19 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>0.2277617926637083</v>
+        <v>0.07969360934872372</v>
       </c>
       <c r="C191">
-        <v>-0.8926669061229495</v>
+        <v>-0.4811763053671497</v>
       </c>
       <c r="D191">
-        <v>-0.2230204359089463</v>
+        <v>0.6014476435358999</v>
+      </c>
+      <c r="E191">
+        <v>25</v>
       </c>
       <c r="F191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -3644,16 +4205,19 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>0.2088939084143537</v>
+        <v>0.4637286828712924</v>
       </c>
       <c r="C192">
-        <v>-0.6967248142091806</v>
+        <v>-0.6372682574745528</v>
       </c>
       <c r="D192">
-        <v>-0.3060502171874776</v>
+        <v>0.8341758457822176</v>
+      </c>
+      <c r="E192">
+        <v>25</v>
       </c>
       <c r="F192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -3661,16 +4225,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>-0.7518125825644935</v>
+        <v>2.737145626349571</v>
       </c>
       <c r="C193">
-        <v>-0.9622921054086411</v>
+        <v>3.589065901626758</v>
       </c>
       <c r="D193">
-        <v>-0.560408489703332</v>
+        <v>1.971463874003051</v>
+      </c>
+      <c r="E193">
+        <v>26</v>
       </c>
       <c r="F193">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -3678,16 +4245,19 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>-0.1307472753275574</v>
+        <v>0.01455255046053427</v>
       </c>
       <c r="C194">
-        <v>-0.2710545736510138</v>
+        <v>0.4394154939879824</v>
       </c>
       <c r="D194">
-        <v>-0.6293556862042731</v>
+        <v>-0.06561473794109418</v>
+      </c>
+      <c r="E194">
+        <v>26</v>
       </c>
       <c r="F194">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -3695,13 +4265,16 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>-0.6324039518101968</v>
+        <v>-0.4800134496402441</v>
       </c>
       <c r="C195">
-        <v>-0.4761244188449366</v>
+        <v>-0.03630294978761439</v>
       </c>
       <c r="D195">
-        <v>0.04965468912912474</v>
+        <v>0.7761450226490655</v>
+      </c>
+      <c r="E195">
+        <v>26</v>
       </c>
       <c r="F195">
         <v>2</v>
@@ -3712,16 +4285,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>0.2762003659265128</v>
+        <v>0.2310651498813694</v>
       </c>
       <c r="C196">
-        <v>-1.171231268716233</v>
+        <v>-1.209243018318563</v>
       </c>
       <c r="D196">
-        <v>0.1201664793898417</v>
+        <v>0.7763418313497236</v>
+      </c>
+      <c r="E196">
+        <v>26</v>
       </c>
       <c r="F196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -3729,13 +4305,16 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>-0.9067150689652361</v>
+        <v>-0.2278532751243285</v>
       </c>
       <c r="C197">
-        <v>0.1681205671105317</v>
+        <v>0.7522641454961182</v>
       </c>
       <c r="D197">
-        <v>-0.3702475083725052</v>
+        <v>0.1188126884296045</v>
+      </c>
+      <c r="E197">
+        <v>26</v>
       </c>
       <c r="F197">
         <v>1</v>
@@ -3746,13 +4325,16 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>-0.7699677741526195</v>
+        <v>-0.5545283503994974</v>
       </c>
       <c r="C198">
-        <v>-0.02909494566982734</v>
+        <v>0.6203329492957065</v>
       </c>
       <c r="D198">
-        <v>-0.3018533847835669</v>
+        <v>0.1230591818178166</v>
+      </c>
+      <c r="E198">
+        <v>26</v>
       </c>
       <c r="F198">
         <v>1</v>
@@ -3763,13 +4345,16 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>-0.5989156693621835</v>
+        <v>-0.6869198140471922</v>
       </c>
       <c r="C199">
-        <v>-0.01707988751084899</v>
+        <v>0.3969571071002881</v>
       </c>
       <c r="D199">
-        <v>-0.5056833404039083</v>
+        <v>-0.2858777151554299</v>
+      </c>
+      <c r="E199">
+        <v>26</v>
       </c>
       <c r="F199">
         <v>1</v>
@@ -3780,16 +4365,19 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>-0.09594544402968042</v>
+        <v>-0.1241766380543208</v>
       </c>
       <c r="C200">
-        <v>-0.5825205562902391</v>
+        <v>-0.1723970594586971</v>
       </c>
       <c r="D200">
-        <v>-0.2078433296374577</v>
+        <v>0.1882137688193931</v>
+      </c>
+      <c r="E200">
+        <v>26</v>
       </c>
       <c r="F200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -3797,16 +4385,19 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>-0.7970561397058809</v>
+        <v>-0.6036039868265088</v>
       </c>
       <c r="C201">
-        <v>-0.03784783367136185</v>
+        <v>0.1963736248874676</v>
       </c>
       <c r="D201">
-        <v>-0.1662368006549305</v>
+        <v>0.4444540060635037</v>
+      </c>
+      <c r="E201">
+        <v>26</v>
       </c>
       <c r="F201">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -3814,13 +4405,16 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>-0.0288566476828897</v>
+        <v>0.1931366155957401</v>
       </c>
       <c r="C202">
-        <v>-0.7722497280282774</v>
+        <v>-0.9817036641752083</v>
       </c>
       <c r="D202">
-        <v>-0.002650559523010798</v>
+        <v>0.6930634301353408</v>
+      </c>
+      <c r="E202">
+        <v>26</v>
       </c>
       <c r="F202">
         <v>2</v>
@@ -3831,16 +4425,19 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>0.1429936447928213</v>
+        <v>0.3483469717195012</v>
       </c>
       <c r="C203">
-        <v>-0.5989026143715812</v>
+        <v>0.7960241865906212</v>
       </c>
       <c r="D203">
-        <v>-0.6524215598324772</v>
+        <v>0.165208044707163</v>
+      </c>
+      <c r="E203">
+        <v>26</v>
       </c>
       <c r="F203">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -3848,16 +4445,19 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>0.1185747060516761</v>
+        <v>0.2271932726461076</v>
       </c>
       <c r="C204">
-        <v>-0.7918741174068387</v>
+        <v>-0.7713475991201107</v>
       </c>
       <c r="D204">
-        <v>-0.2627152174267878</v>
+        <v>0.7486326696447231</v>
+      </c>
+      <c r="E204">
+        <v>26</v>
       </c>
       <c r="F204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -3865,13 +4465,16 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>-0.2672311749390571</v>
+        <v>-0.1835083396985264</v>
       </c>
       <c r="C205">
-        <v>0.1199913429938902</v>
+        <v>0.9346665429709214</v>
       </c>
       <c r="D205">
-        <v>-1.054061365563738</v>
+        <v>-0.6218717008549771</v>
+      </c>
+      <c r="E205">
+        <v>26</v>
       </c>
       <c r="F205">
         <v>1</v>
@@ -3882,13 +4485,16 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>-1.683227641160133</v>
+        <v>-1.133071610077566</v>
       </c>
       <c r="C206">
-        <v>-0.3682119736342042</v>
+        <v>2.284126632482248</v>
       </c>
       <c r="D206">
-        <v>0.03633806716317134</v>
+        <v>3.976787237797807</v>
+      </c>
+      <c r="E206">
+        <v>26</v>
       </c>
       <c r="F206">
         <v>2</v>
@@ -3899,13 +4505,16 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>-0.291928482114359</v>
+        <v>-0.1225398428211544</v>
       </c>
       <c r="C207">
-        <v>-0.2907499559127202</v>
+        <v>0.08635595115895425</v>
       </c>
       <c r="D207">
-        <v>-0.3961629557018562</v>
+        <v>0.01339665328747341</v>
+      </c>
+      <c r="E207">
+        <v>26</v>
       </c>
       <c r="F207">
         <v>1</v>
@@ -3916,13 +4525,16 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>-0.255339997414595</v>
+        <v>-0.1929119143044326</v>
       </c>
       <c r="C208">
-        <v>0.06738676955614754</v>
+        <v>0.3248359410857048</v>
       </c>
       <c r="D208">
-        <v>-0.8132634308342054</v>
+        <v>-0.6385125522480681</v>
+      </c>
+      <c r="E208">
+        <v>26</v>
       </c>
       <c r="F208">
         <v>1</v>
@@ -3933,16 +4545,19 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>0.1639018013316947</v>
+        <v>0.2387959601058671</v>
       </c>
       <c r="C209">
-        <v>-0.9642054574116068</v>
+        <v>-1.054635690106847</v>
       </c>
       <c r="D209">
-        <v>0.02092307669408866</v>
+        <v>0.5309079351489537</v>
+      </c>
+      <c r="E209">
+        <v>26</v>
       </c>
       <c r="F209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -3950,13 +4565,16 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>-0.1016983228901885</v>
+        <v>-1.834610318303216</v>
       </c>
       <c r="C210">
-        <v>-3.660124399254337</v>
+        <v>-6.127470744855033</v>
       </c>
       <c r="D210">
-        <v>3.530627837598586</v>
+        <v>7.043301738278068</v>
+      </c>
+      <c r="E210">
+        <v>26</v>
       </c>
       <c r="F210">
         <v>2</v>
@@ -3967,13 +4585,16 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>-1.786659922316732</v>
+        <v>-1.097319880688344</v>
       </c>
       <c r="C211">
-        <v>-0.8072610132445537</v>
+        <v>1.967730556591805</v>
       </c>
       <c r="D211">
-        <v>0.5855792175412897</v>
+        <v>5.132020471890185</v>
+      </c>
+      <c r="E211">
+        <v>26</v>
       </c>
       <c r="F211">
         <v>2</v>
@@ -3984,13 +4605,16 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>-2.103309594753164</v>
+        <v>-1.441905189723766</v>
       </c>
       <c r="C212">
-        <v>-0.5107102467462992</v>
+        <v>2.072516342814014</v>
       </c>
       <c r="D212">
-        <v>0.6649894716319108</v>
+        <v>4.801615811455441</v>
+      </c>
+      <c r="E212">
+        <v>26</v>
       </c>
       <c r="F212">
         <v>2</v>
@@ -4001,13 +4625,16 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>-0.4320684978074547</v>
+        <v>-0.1401857780005052</v>
       </c>
       <c r="C213">
-        <v>-0.2195597121493337</v>
+        <v>0.2885811634379895</v>
       </c>
       <c r="D213">
-        <v>-0.4619117842419616</v>
+        <v>0.1529946676330866</v>
+      </c>
+      <c r="E213">
+        <v>26</v>
       </c>
       <c r="F213">
         <v>1</v>
@@ -4018,13 +4645,16 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>-0.5633479326656299</v>
+        <v>-0.4513876914208099</v>
       </c>
       <c r="C214">
-        <v>-0.6770032967785471</v>
+        <v>-0.889793412900581</v>
       </c>
       <c r="D214">
-        <v>0.4614620937680223</v>
+        <v>1.327529776073704</v>
+      </c>
+      <c r="E214">
+        <v>26</v>
       </c>
       <c r="F214">
         <v>2</v>
@@ -4035,13 +4665,16 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>-0.4942001832665248</v>
+        <v>-0.3161474699959587</v>
       </c>
       <c r="C215">
-        <v>-0.4623054669020242</v>
+        <v>-0.007672616449915126</v>
       </c>
       <c r="D215">
-        <v>-0.03123492291100971</v>
+        <v>0.5737763468486532</v>
+      </c>
+      <c r="E215">
+        <v>26</v>
       </c>
       <c r="F215">
         <v>2</v>
@@ -4052,13 +4685,16 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>0.6886067750770164</v>
+        <v>0.8527583482528523</v>
       </c>
       <c r="C216">
-        <v>-0.8439310748695246</v>
+        <v>-0.5530994221496264</v>
       </c>
       <c r="D216">
-        <v>-0.9863184155147171</v>
+        <v>-0.3739916883706168</v>
+      </c>
+      <c r="E216">
+        <v>27</v>
       </c>
       <c r="F216">
         <v>0</v>
@@ -4069,16 +4705,19 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>0.5101037986933223</v>
+        <v>0.2640058751420428</v>
       </c>
       <c r="C217">
-        <v>-0.9913548733246031</v>
+        <v>1.364138673026204</v>
       </c>
       <c r="D217">
-        <v>-0.8519933570816125</v>
+        <v>0.6704568898566273</v>
+      </c>
+      <c r="E217">
+        <v>27</v>
       </c>
       <c r="F217">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4086,16 +4725,19 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>0.4444147986251485</v>
+        <v>0.2154222765354645</v>
       </c>
       <c r="C218">
-        <v>-1.004327579336423</v>
+        <v>0.6043884770625751</v>
       </c>
       <c r="D218">
-        <v>-0.7330001973982865</v>
+        <v>0.3185896650115635</v>
+      </c>
+      <c r="E218">
+        <v>27</v>
       </c>
       <c r="F218">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4103,13 +4745,16 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>0.5968050218438277</v>
+        <v>0.7301857013292684</v>
       </c>
       <c r="C219">
-        <v>-1.095222300566088</v>
+        <v>-0.6222384701524305</v>
       </c>
       <c r="D219">
-        <v>-0.6376949260431715</v>
+        <v>0.2010579008282036</v>
+      </c>
+      <c r="E219">
+        <v>27</v>
       </c>
       <c r="F219">
         <v>0</v>
@@ -4120,13 +4765,16 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>-0.3515928658318535</v>
+        <v>-0.4633094115682539</v>
       </c>
       <c r="C220">
-        <v>-0.2225416672411187</v>
+        <v>0.3134489663565611</v>
       </c>
       <c r="D220">
-        <v>-0.5876822165065038</v>
+        <v>0.209603093747242</v>
+      </c>
+      <c r="E220">
+        <v>27</v>
       </c>
       <c r="F220">
         <v>1</v>
@@ -4137,16 +4785,19 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>0.2925013670457835</v>
+        <v>-0.03176075066314565</v>
       </c>
       <c r="C221">
-        <v>-1.082862822208836</v>
+        <v>2.095967375502104</v>
       </c>
       <c r="D221">
-        <v>-0.8115262975753297</v>
+        <v>1.144091712484118</v>
+      </c>
+      <c r="E221">
+        <v>27</v>
       </c>
       <c r="F221">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4154,16 +4805,19 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>0.6831172973124251</v>
+        <v>0.5704193157489229</v>
       </c>
       <c r="C222">
-        <v>-1.350099476915511</v>
+        <v>0.2191359699424115</v>
       </c>
       <c r="D222">
-        <v>-0.5891293885445749</v>
+        <v>1.01836782889199</v>
+      </c>
+      <c r="E222">
+        <v>27</v>
       </c>
       <c r="F222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4171,16 +4825,19 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>0.6948421740690973</v>
+        <v>0.6415621652761335</v>
       </c>
       <c r="C223">
-        <v>-1.212226856556246</v>
+        <v>1.106128947110026</v>
       </c>
       <c r="D223">
-        <v>-0.8820825989815709</v>
+        <v>0.7509854670289365</v>
+      </c>
+      <c r="E223">
+        <v>27</v>
       </c>
       <c r="F223">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4188,13 +4845,16 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>0.3777715108448895</v>
+        <v>0.6096289043747493</v>
       </c>
       <c r="C224">
-        <v>-0.7334755680674421</v>
+        <v>0.1319887560621781</v>
       </c>
       <c r="D224">
-        <v>-1.045401566582811</v>
+        <v>-0.1278692712972989</v>
+      </c>
+      <c r="E224">
+        <v>27</v>
       </c>
       <c r="F224">
         <v>0</v>
@@ -4205,16 +4865,19 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>0.2407010972870411</v>
+        <v>0.2434450720321428</v>
       </c>
       <c r="C225">
-        <v>-0.8173374131283231</v>
+        <v>1.052318320731052</v>
       </c>
       <c r="D225">
-        <v>-0.7079874576964083</v>
+        <v>0.3877071618331766</v>
+      </c>
+      <c r="E225">
+        <v>27</v>
       </c>
       <c r="F225">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4222,13 +4885,16 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>-0.04071756689524136</v>
+        <v>0.3316763983818788</v>
       </c>
       <c r="C226">
-        <v>-0.2095216792112229</v>
+        <v>0.2726320440845008</v>
       </c>
       <c r="D226">
-        <v>-0.9355834993062151</v>
+        <v>-0.4267196648984732</v>
+      </c>
+      <c r="E226">
+        <v>27</v>
       </c>
       <c r="F226">
         <v>0</v>
@@ -4239,13 +4905,16 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>0.0942948830602211</v>
+        <v>0.5930899963977608</v>
       </c>
       <c r="C227">
-        <v>-0.2697477513420942</v>
+        <v>-0.01579555669583832</v>
       </c>
       <c r="D227">
-        <v>-1.010581209889578</v>
+        <v>-0.6871461377219934</v>
+      </c>
+      <c r="E227">
+        <v>27</v>
       </c>
       <c r="F227">
         <v>0</v>
@@ -4256,16 +4925,19 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>0.5913661933992318</v>
+        <v>0.7630718233786559</v>
       </c>
       <c r="C228">
-        <v>-1.21397248727265</v>
+        <v>-0.09962655202489168</v>
       </c>
       <c r="D228">
-        <v>-0.5142213873618661</v>
+        <v>1.043355657405477</v>
+      </c>
+      <c r="E228">
+        <v>27</v>
       </c>
       <c r="F228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4273,16 +4945,19 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>0.420211782366866</v>
+        <v>0.02947228053873008</v>
       </c>
       <c r="C229">
-        <v>-1.306670292101646</v>
+        <v>2.605275710296755</v>
       </c>
       <c r="D229">
-        <v>-0.840995611701261</v>
+        <v>1.728738706528193</v>
+      </c>
+      <c r="E229">
+        <v>27</v>
       </c>
       <c r="F229">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4290,16 +4965,19 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>0.07499381718357939</v>
+        <v>-0.4141262506266002</v>
       </c>
       <c r="C230">
-        <v>-0.3865333016128072</v>
+        <v>1.734088960407933</v>
       </c>
       <c r="D230">
-        <v>-1.106910091574814</v>
+        <v>-0.1748870807112052</v>
+      </c>
+      <c r="E230">
+        <v>27</v>
       </c>
       <c r="F230">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4307,16 +4985,19 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>0.01752603663444185</v>
+        <v>-0.4471620752996769</v>
       </c>
       <c r="C231">
-        <v>-0.5594375570467987</v>
+        <v>2.145019605833006</v>
       </c>
       <c r="D231">
-        <v>-0.8970617368319281</v>
+        <v>0.8181620772051735</v>
+      </c>
+      <c r="E231">
+        <v>27</v>
       </c>
       <c r="F231">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -4324,16 +5005,19 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>0.1775014552062993</v>
+        <v>-0.1658566383241304</v>
       </c>
       <c r="C232">
-        <v>-0.2795237802825856</v>
+        <v>0.2408728991786208</v>
       </c>
       <c r="D232">
-        <v>-1.318874078179685</v>
+        <v>-0.5963010721410622</v>
+      </c>
+      <c r="E232">
+        <v>27</v>
       </c>
       <c r="F232">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -4341,13 +5025,16 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>0.2058391054330358</v>
+        <v>0.4403747660130631</v>
       </c>
       <c r="C233">
-        <v>-0.531054300503462</v>
+        <v>-0.3524780756602867</v>
       </c>
       <c r="D233">
-        <v>-0.9916105153898399</v>
+        <v>-0.04584314882328233</v>
+      </c>
+      <c r="E233">
+        <v>27</v>
       </c>
       <c r="F233">
         <v>0</v>
@@ -4358,13 +5045,16 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>-0.3166531373444105</v>
+        <v>-0.3184577729325396</v>
       </c>
       <c r="C234">
-        <v>-0.5714453417784033</v>
+        <v>0.1174075428528862</v>
       </c>
       <c r="D234">
-        <v>-0.2955479325369686</v>
+        <v>0.7286062287576521</v>
+      </c>
+      <c r="E234">
+        <v>27</v>
       </c>
       <c r="F234">
         <v>2</v>
@@ -4375,16 +5065,19 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>-8.025836304498268e-05</v>
+        <v>0.4457189844884119</v>
       </c>
       <c r="C235">
-        <v>-0.4888689463627181</v>
+        <v>0.5067418893722377</v>
       </c>
       <c r="D235">
-        <v>-0.8544339530307241</v>
+        <v>0.2471593113105067</v>
+      </c>
+      <c r="E235">
+        <v>27</v>
       </c>
       <c r="F235">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -4392,16 +5085,19 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>0.6080433318239786</v>
+        <v>-0.3213748406260454</v>
       </c>
       <c r="C236">
-        <v>-1.432888683727562</v>
+        <v>2.280803384297366</v>
       </c>
       <c r="D236">
-        <v>-0.7161680917622167</v>
+        <v>1.402210587316262</v>
+      </c>
+      <c r="E236">
+        <v>27</v>
       </c>
       <c r="F236">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -4409,16 +5105,19 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>0.8431075850151177</v>
+        <v>0.2988741840813721</v>
       </c>
       <c r="C237">
-        <v>-1.604843157277399</v>
+        <v>3.598777572564479</v>
       </c>
       <c r="D237">
-        <v>-1.096326894542873</v>
+        <v>1.62276528225685</v>
+      </c>
+      <c r="E237">
+        <v>27</v>
       </c>
       <c r="F237">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -4426,16 +5125,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>0.8795329154559424</v>
+        <v>0.4741068895877701</v>
       </c>
       <c r="C238">
-        <v>-1.45637788159329</v>
+        <v>3.504925271282556</v>
       </c>
       <c r="D238">
-        <v>-1.078766925275695</v>
+        <v>1.673427313791779</v>
+      </c>
+      <c r="E238">
+        <v>27</v>
       </c>
       <c r="F238">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -4443,16 +5145,19 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>0.7201313874597453</v>
+        <v>0.4735176658291865</v>
       </c>
       <c r="C239">
-        <v>-1.204285916586103</v>
+        <v>1.399098383278122</v>
       </c>
       <c r="D239">
-        <v>-1.034445813392157</v>
+        <v>0.5715117950034582</v>
+      </c>
+      <c r="E239">
+        <v>27</v>
       </c>
       <c r="F239">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -4460,13 +5165,16 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>1.334084810140417</v>
+        <v>1.868956644025285</v>
       </c>
       <c r="C240">
-        <v>-0.9900392600962562</v>
+        <v>-0.6680855740833737</v>
       </c>
       <c r="D240">
-        <v>-1.611916924293559</v>
+        <v>-0.8478614819785368</v>
+      </c>
+      <c r="E240">
+        <v>27</v>
       </c>
       <c r="F240">
         <v>0</v>
@@ -4477,13 +5185,16 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>-3.368587312266734</v>
+        <v>-3.580798449469547</v>
       </c>
       <c r="C241">
-        <v>-1.120805520613196</v>
+        <v>7.9224498465447</v>
       </c>
       <c r="D241">
-        <v>0.4823483208278275</v>
+        <v>9.80279287712318</v>
+      </c>
+      <c r="E241">
+        <v>27</v>
       </c>
       <c r="F241">
         <v>2</v>
@@ -4494,13 +5205,16 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>-4.133317293889331</v>
+        <v>-4.965098446914355</v>
       </c>
       <c r="C242">
-        <v>-1.156650034234264</v>
+        <v>11.69318952669089</v>
       </c>
       <c r="D242">
-        <v>1.258877670778865</v>
+        <v>14.34050673044877</v>
+      </c>
+      <c r="E242">
+        <v>27</v>
       </c>
       <c r="F242">
         <v>2</v>
@@ -4511,16 +5225,19 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>0.1577990124881267</v>
+        <v>-0.2922943523203437</v>
       </c>
       <c r="C243">
-        <v>-1.013758645060906</v>
+        <v>1.891530801319292</v>
       </c>
       <c r="D243">
-        <v>-0.6981799462666745</v>
+        <v>1.52220540829684</v>
+      </c>
+      <c r="E243">
+        <v>27</v>
       </c>
       <c r="F243">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -4528,16 +5245,19 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>0.7870311631895737</v>
+        <v>0.5835174371576958</v>
       </c>
       <c r="C244">
-        <v>-1.248441323401499</v>
+        <v>1.331887151546045</v>
       </c>
       <c r="D244">
-        <v>-1.117510219618203</v>
+        <v>0.6564623992771316</v>
+      </c>
+      <c r="E244">
+        <v>27</v>
       </c>
       <c r="F244">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -4545,13 +5265,16 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>0.5758046636374285</v>
+        <v>0.7158948621480968</v>
       </c>
       <c r="C245">
-        <v>-0.9498830059005261</v>
+        <v>0.330617783389353</v>
       </c>
       <c r="D245">
-        <v>-0.9785374251891522</v>
+        <v>0.2146721264941561</v>
+      </c>
+      <c r="E245">
+        <v>27</v>
       </c>
       <c r="F245">
         <v>0</v>
@@ -4562,16 +5285,19 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>0.6171934068088969</v>
+        <v>-0.03511211888552379</v>
       </c>
       <c r="C246">
-        <v>-1.050551033550964</v>
+        <v>1.049488480199873</v>
       </c>
       <c r="D246">
-        <v>-1.197334844399193</v>
+        <v>0.5726038174059321</v>
+      </c>
+      <c r="E246">
+        <v>27</v>
       </c>
       <c r="F246">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
